--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -4,19 +4,56 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="AA19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">
+όταν η μεταβλητή χ16 έχει τιμή Α τότε οι ομάδες -χ14 και χ15 προκαλούν αντίφαση στην μεταβλητή χ19</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="226">
   <si>
     <t>-6 -8</t>
   </si>
@@ -577,13 +614,130 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>τιμή</t>
+  </si>
+  <si>
+    <t>αντιφ.</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>-9,13</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>-9, -11</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>7, -19</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>-13</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>8, -15</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>15, -19</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7, -17</t>
+  </si>
+  <si>
+    <t>-14, 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,6 +790,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="5">
@@ -691,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,7 +904,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,12 +916,37 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,7 +1257,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1073,110 +1270,110 @@
     <row r="1" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="17">
+      <c r="C1" s="18">
         <v>17</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16">
+      <c r="D1" s="18"/>
+      <c r="E1" s="17">
         <v>-17</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15">
+      <c r="F1" s="17"/>
+      <c r="G1" s="19">
         <v>19</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="17">
+      <c r="H1" s="19"/>
+      <c r="I1" s="18">
         <v>-19</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18">
         <v>9</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="16">
+      <c r="L1" s="18"/>
+      <c r="M1" s="17">
         <v>-9</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15">
+      <c r="N1" s="17"/>
+      <c r="O1" s="19">
         <v>7</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="17">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="18">
         <v>-7</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="15">
+      <c r="R1" s="18"/>
+      <c r="S1" s="19">
         <v>10</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="17">
+      <c r="T1" s="19"/>
+      <c r="U1" s="18">
         <v>-10</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17">
+      <c r="V1" s="18"/>
+      <c r="W1" s="18">
         <v>11</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="16">
+      <c r="X1" s="18"/>
+      <c r="Y1" s="17">
         <v>-11</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="17">
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="18">
         <v>14</v>
       </c>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="16">
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="17">
         <v>-14</v>
       </c>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="15">
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="19">
         <v>15</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="17">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="18">
         <v>-15</v>
       </c>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17">
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18">
         <v>4</v>
       </c>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="16">
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="17">
         <v>-4</v>
       </c>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="17">
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="18">
         <v>18</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="16">
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="17">
         <v>-18</v>
       </c>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="17">
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="18">
         <v>2</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="16">
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="17">
         <v>-2</v>
       </c>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="15">
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="19">
         <v>8</v>
       </c>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="17">
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="18">
         <v>-8</v>
       </c>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="15">
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="19">
         <v>13</v>
       </c>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="16">
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="17">
         <v>-13</v>
       </c>
-      <c r="BB1" s="16"/>
+      <c r="BB1" s="17"/>
       <c r="BD1" s="9" t="s">
         <v>108</v>
       </c>
@@ -6711,12 +6908,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -6729,14 +6928,12 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -6876,8 +7073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6890,32 +7087,32 @@
     <row r="1" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="15">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16">
+      <c r="C1" s="19">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="17">
         <v>-1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15">
+      <c r="F1" s="17"/>
+      <c r="G1" s="19">
         <v>2</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16">
+      <c r="H1" s="19"/>
+      <c r="I1" s="17">
         <v>-2</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="15">
+      <c r="J1" s="17"/>
+      <c r="K1" s="19">
         <v>3</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16">
+      <c r="L1" s="19"/>
+      <c r="M1" s="17">
         <v>-3</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,14 +7170,14 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="8"/>
@@ -6999,12 +7196,12 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="11"/>
@@ -7023,7 +7220,7 @@
       <c r="B5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="8"/>
@@ -7036,7 +7233,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="8"/>
@@ -7049,7 +7246,7 @@
       <c r="B6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8"/>
@@ -7060,7 +7257,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="11"/>
@@ -7081,4 +7278,3171 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="7.140625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="6.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="28" customWidth="1"/>
+    <col min="6" max="16" width="6.140625" style="28" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="28" customWidth="1"/>
+    <col min="18" max="20" width="6.140625" style="28" customWidth="1"/>
+    <col min="21" max="26" width="6.140625" style="29" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" style="29" customWidth="1"/>
+    <col min="28" max="62" width="6.140625" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="20">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21">
+        <v>-1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="20">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21">
+        <v>-5</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="20">
+        <v>4</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21">
+        <v>-4</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="20">
+        <v>12</v>
+      </c>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="21">
+        <v>-12</v>
+      </c>
+      <c r="R1" s="21"/>
+      <c r="S1" s="20">
+        <v>15</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="21">
+        <v>-15</v>
+      </c>
+      <c r="V1" s="21"/>
+      <c r="W1" s="20">
+        <v>18</v>
+      </c>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="21">
+        <v>-18</v>
+      </c>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="20">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="21">
+        <v>-16</v>
+      </c>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="20">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21">
+        <v>-14</v>
+      </c>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="20">
+        <v>8</v>
+      </c>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="21">
+        <v>-8</v>
+      </c>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="20">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="21">
+        <v>-9</v>
+      </c>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="20">
+        <v>20</v>
+      </c>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="21">
+        <v>-20</v>
+      </c>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="20">
+        <v>6</v>
+      </c>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="21">
+        <v>-6</v>
+      </c>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="20">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="21">
+        <v>-3</v>
+      </c>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="20">
+        <v>10</v>
+      </c>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="20">
+        <v>11</v>
+      </c>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="21">
+        <v>-11</v>
+      </c>
+      <c r="BJ1" s="21"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ2" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" s="26"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26"/>
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BI4" s="26"/>
+      <c r="BJ4" s="26"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="24"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="26"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="26"/>
+      <c r="BJ5" s="26"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="26"/>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="26"/>
+      <c r="BF6" s="26"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="26"/>
+      <c r="BJ6" s="26"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="R7" s="26"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="24"/>
+      <c r="AV7" s="24"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="24"/>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="26"/>
+      <c r="BF7" s="26"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="24"/>
+      <c r="BI7" s="26"/>
+      <c r="BJ7" s="26"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="24"/>
+      <c r="AW8" s="26"/>
+      <c r="AX8" s="26"/>
+      <c r="AY8" s="24"/>
+      <c r="AZ8" s="24"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="26"/>
+      <c r="BC8" s="24"/>
+      <c r="BD8" s="24"/>
+      <c r="BE8" s="26"/>
+      <c r="BF8" s="26"/>
+      <c r="BG8" s="24"/>
+      <c r="BH8" s="24"/>
+      <c r="BI8" s="26"/>
+      <c r="BJ8" s="26"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="T10" s="24"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="24"/>
+      <c r="AV10" s="24"/>
+      <c r="AW10" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="24"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="24"/>
+      <c r="BD10" s="24"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="24"/>
+      <c r="BH10" s="24"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="R11" s="26"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH11" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="26"/>
+      <c r="AX11" s="26"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="26"/>
+      <c r="BF11" s="26"/>
+      <c r="BG11" s="24"/>
+      <c r="BH11" s="24"/>
+      <c r="BI11" s="26"/>
+      <c r="BJ11" s="26"/>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="24"/>
+      <c r="AV12" s="24"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="24"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="24"/>
+      <c r="BD12" s="24"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="24"/>
+      <c r="BH12" s="24"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="V13" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="24"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="26"/>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="R14" s="26"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+      <c r="BA14" s="26"/>
+      <c r="BB14" s="26"/>
+      <c r="BC14" s="24"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="26"/>
+      <c r="BF14" s="26"/>
+      <c r="BG14" s="24"/>
+      <c r="BH14" s="24"/>
+      <c r="BI14" s="26"/>
+      <c r="BJ14" s="26"/>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="T15" s="24"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="24"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="24"/>
+      <c r="AV15" s="24"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="24"/>
+      <c r="AZ15" s="24"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="24"/>
+      <c r="BD15" s="24"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="24"/>
+      <c r="BH15" s="24"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="24">
+        <v>15</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="V16" s="26"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="24"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="24"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="24"/>
+      <c r="BD16" s="24"/>
+      <c r="BE16" s="26"/>
+      <c r="BF16" s="26"/>
+      <c r="BG16" s="24"/>
+      <c r="BH16" s="24"/>
+      <c r="BI16" s="26"/>
+      <c r="BJ16" s="26"/>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="24"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="24"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="24"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="24">
+        <v>17</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="24"/>
+      <c r="AV18" s="24"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="24"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="24"/>
+      <c r="BD18" s="24"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="26"/>
+      <c r="BG18" s="24"/>
+      <c r="BH18" s="24"/>
+      <c r="BI18" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ18" s="26"/>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="24">
+        <v>-14</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="R19" s="25"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="26"/>
+      <c r="BF19" s="25"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="26"/>
+      <c r="BJ19" s="25"/>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="24"/>
+      <c r="AV20" s="24"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="24"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="24"/>
+      <c r="BD20" s="24"/>
+      <c r="BE20" s="26"/>
+      <c r="BF20" s="26"/>
+      <c r="BG20" s="24"/>
+      <c r="BH20" s="24"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="24"/>
+      <c r="AV21" s="24"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="24"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="26"/>
+      <c r="BF21" s="26"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="26"/>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="24"/>
+      <c r="BH22" s="24"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="24"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="24"/>
+      <c r="AV23" s="24"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="24"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="24"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="26"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="24"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="26"/>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="24"/>
+      <c r="AR24" s="24"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="24"/>
+      <c r="AV24" s="24"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="24"/>
+      <c r="AZ24" s="24"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="24"/>
+      <c r="BD24" s="24"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="24"/>
+      <c r="BH24" s="24"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="24"/>
+      <c r="AR25" s="24"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="24"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="24"/>
+      <c r="BH25" s="24"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="24"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="24"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="24"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="24"/>
+      <c r="BD26" s="24"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="26"/>
+      <c r="BG26" s="24"/>
+      <c r="BH26" s="24"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="26"/>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="24"/>
+      <c r="AR27" s="24"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="24"/>
+      <c r="AV27" s="24"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="24"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="24"/>
+      <c r="BD27" s="24"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="26"/>
+      <c r="BG27" s="24"/>
+      <c r="BH27" s="24"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="24"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="26"/>
+      <c r="BG28" s="24"/>
+      <c r="BH28" s="24"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="26"/>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="24"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="24"/>
+      <c r="BD29" s="24"/>
+      <c r="BE29" s="26"/>
+      <c r="BF29" s="26"/>
+      <c r="BG29" s="24"/>
+      <c r="BH29" s="24"/>
+      <c r="BI29" s="26"/>
+      <c r="BJ29" s="26"/>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="24"/>
+      <c r="AR30" s="24"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="24"/>
+      <c r="AV30" s="24"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="24"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
+      <c r="BC30" s="24"/>
+      <c r="BD30" s="24"/>
+      <c r="BE30" s="26"/>
+      <c r="BF30" s="26"/>
+      <c r="BG30" s="24"/>
+      <c r="BH30" s="24"/>
+      <c r="BI30" s="26"/>
+      <c r="BJ30" s="26"/>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26"/>
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="24"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="24"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="26"/>
+      <c r="BC31" s="24"/>
+      <c r="BD31" s="24"/>
+      <c r="BE31" s="26"/>
+      <c r="BF31" s="26"/>
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="24"/>
+      <c r="BI31" s="26"/>
+      <c r="BJ31" s="26"/>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26"/>
+      <c r="AU32" s="24"/>
+      <c r="AV32" s="24"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="24"/>
+      <c r="AZ32" s="24"/>
+      <c r="BA32" s="26"/>
+      <c r="BB32" s="26"/>
+      <c r="BC32" s="24"/>
+      <c r="BD32" s="24"/>
+      <c r="BE32" s="26"/>
+      <c r="BF32" s="26"/>
+      <c r="BG32" s="24"/>
+      <c r="BH32" s="24"/>
+      <c r="BI32" s="26"/>
+      <c r="BJ32" s="26"/>
+    </row>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="24"/>
+      <c r="AR33" s="24"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="24"/>
+      <c r="AV33" s="24"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="24"/>
+      <c r="AZ33" s="24"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="24"/>
+      <c r="BD33" s="24"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="24"/>
+      <c r="BH33" s="24"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="26"/>
+    </row>
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="24"/>
+      <c r="AR34" s="24"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="24"/>
+      <c r="AV34" s="24"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="24"/>
+      <c r="AZ34" s="24"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26"/>
+      <c r="BC34" s="24"/>
+      <c r="BD34" s="24"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26"/>
+      <c r="BG34" s="24"/>
+      <c r="BH34" s="24"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26"/>
+    </row>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="24"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="24"/>
+      <c r="AV35" s="24"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="24"/>
+      <c r="AZ35" s="24"/>
+      <c r="BA35" s="26"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="24"/>
+      <c r="BD35" s="24"/>
+      <c r="BE35" s="26"/>
+      <c r="BF35" s="26"/>
+      <c r="BG35" s="24"/>
+      <c r="BH35" s="24"/>
+      <c r="BI35" s="26"/>
+      <c r="BJ35" s="26"/>
+    </row>
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="24"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="24"/>
+      <c r="AV36" s="24"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26"/>
+      <c r="AY36" s="24"/>
+      <c r="AZ36" s="24"/>
+      <c r="BA36" s="26"/>
+      <c r="BB36" s="26"/>
+      <c r="BC36" s="24"/>
+      <c r="BD36" s="24"/>
+      <c r="BE36" s="26"/>
+      <c r="BF36" s="26"/>
+      <c r="BG36" s="24"/>
+      <c r="BH36" s="24"/>
+      <c r="BI36" s="26"/>
+      <c r="BJ36" s="26"/>
+    </row>
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="24"/>
+      <c r="AS37" s="26"/>
+      <c r="AT37" s="26"/>
+      <c r="AU37" s="24"/>
+      <c r="AV37" s="24"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="26"/>
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="24"/>
+      <c r="BA37" s="26"/>
+      <c r="BB37" s="26"/>
+      <c r="BC37" s="24"/>
+      <c r="BD37" s="24"/>
+      <c r="BE37" s="26"/>
+      <c r="BF37" s="26"/>
+      <c r="BG37" s="24"/>
+      <c r="BH37" s="24"/>
+      <c r="BI37" s="26"/>
+      <c r="BJ37" s="26"/>
+    </row>
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="24"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="24"/>
+      <c r="AR38" s="24"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="26"/>
+      <c r="AU38" s="24"/>
+      <c r="AV38" s="24"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="26"/>
+      <c r="AY38" s="24"/>
+      <c r="AZ38" s="24"/>
+      <c r="BA38" s="26"/>
+      <c r="BB38" s="26"/>
+      <c r="BC38" s="24"/>
+      <c r="BD38" s="24"/>
+      <c r="BE38" s="26"/>
+      <c r="BF38" s="26"/>
+      <c r="BG38" s="24"/>
+      <c r="BH38" s="24"/>
+      <c r="BI38" s="26"/>
+      <c r="BJ38" s="26"/>
+    </row>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="24"/>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="24"/>
+      <c r="AR39" s="24"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="26"/>
+      <c r="AU39" s="24"/>
+      <c r="AV39" s="24"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="26"/>
+      <c r="AY39" s="24"/>
+      <c r="AZ39" s="24"/>
+      <c r="BA39" s="26"/>
+      <c r="BB39" s="26"/>
+      <c r="BC39" s="24"/>
+      <c r="BD39" s="24"/>
+      <c r="BE39" s="26"/>
+      <c r="BF39" s="26"/>
+      <c r="BG39" s="24"/>
+      <c r="BH39" s="24"/>
+      <c r="BI39" s="26"/>
+      <c r="BJ39" s="26"/>
+    </row>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="24"/>
+      <c r="AR40" s="24"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+      <c r="AU40" s="24"/>
+      <c r="AV40" s="24"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="26"/>
+      <c r="AY40" s="24"/>
+      <c r="AZ40" s="24"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="26"/>
+      <c r="BC40" s="24"/>
+      <c r="BD40" s="24"/>
+      <c r="BE40" s="26"/>
+      <c r="BF40" s="26"/>
+      <c r="BG40" s="24"/>
+      <c r="BH40" s="24"/>
+      <c r="BI40" s="26"/>
+      <c r="BJ40" s="26"/>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="24"/>
+      <c r="AS41" s="26"/>
+      <c r="AT41" s="26"/>
+      <c r="AU41" s="24"/>
+      <c r="AV41" s="24"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="26"/>
+      <c r="AY41" s="24"/>
+      <c r="AZ41" s="24"/>
+      <c r="BA41" s="26"/>
+      <c r="BB41" s="26"/>
+      <c r="BC41" s="24"/>
+      <c r="BD41" s="24"/>
+      <c r="BE41" s="26"/>
+      <c r="BF41" s="26"/>
+      <c r="BG41" s="24"/>
+      <c r="BH41" s="24"/>
+      <c r="BI41" s="26"/>
+      <c r="BJ41" s="26"/>
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="24"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="24"/>
+      <c r="AR42" s="24"/>
+      <c r="AS42" s="26"/>
+      <c r="AT42" s="26"/>
+      <c r="AU42" s="24"/>
+      <c r="AV42" s="24"/>
+      <c r="AW42" s="26"/>
+      <c r="AX42" s="26"/>
+      <c r="AY42" s="24"/>
+      <c r="AZ42" s="24"/>
+      <c r="BA42" s="26"/>
+      <c r="BB42" s="26"/>
+      <c r="BC42" s="24"/>
+      <c r="BD42" s="24"/>
+      <c r="BE42" s="26"/>
+      <c r="BF42" s="26"/>
+      <c r="BG42" s="24"/>
+      <c r="BH42" s="24"/>
+      <c r="BI42" s="26"/>
+      <c r="BJ42" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -16,44 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="AA19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="161"/>
-          </rPr>
-          <t xml:space="preserve">
-όταν η μεταβλητή χ16 έχει τιμή Α τότε οι ομάδες -χ14 και χ15 προκαλούν αντίφαση στην μεταβλητή χ19</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="264">
   <si>
     <t>-6 -8</t>
   </si>
@@ -731,13 +695,127 @@
   </si>
   <si>
     <t>-14, 15</t>
+  </si>
+  <si>
+    <t>όταν -12 = Α και 15 = Α τότε 7 με 11 έχει αντίφαση όπως και το -17 με το 11 στο 2</t>
+  </si>
+  <si>
+    <t>όταν -12 = Α και 18 = Α τότε 7 με 10 έχει αντίφαση όπως και το -17 με το 10 στο 2</t>
+  </si>
+  <si>
+    <t>όταν 5 = Α και -4 = Α τότε -18 με 15 έχει αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν -12 = Α τότε 2 και -11 έχουν αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν 5 = Α και -12 = Α τότε -18 με -11 έχει αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν 5 = Α και 6 = Α τότε -18 με 15 έχει αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν -4 = Α και -12 = Α τότε 15 και 2 αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν -4 = Α και 18 = Α τότε 15 και -11 αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν -4 = Α και -16 = Α τότε 15 και 11 αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν -12 = Α και 6 = Α τότε 2 και 15 έχουν αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν -12 = Α και 18 = Α τότε -11 έχει αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν -12 = Α και -16 = Α τότε -11 και 11 έχει αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν 18 = Α και 6 = Α τότε -11 και 15 έχει αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>όταν -16 = Α και 6 = Α τότε 11 και 15 έχει αντίφαση στο 3</t>
+  </si>
+  <si>
+    <t>αντιφάσεις</t>
+  </si>
+  <si>
+    <t>-12, 15</t>
+  </si>
+  <si>
+    <t>-12, 18</t>
+  </si>
+  <si>
+    <t>5, -4</t>
+  </si>
+  <si>
+    <t>5, 6</t>
+  </si>
+  <si>
+    <t>-4, -12</t>
+  </si>
+  <si>
+    <t>-4, -16</t>
+  </si>
+  <si>
+    <t>-12, 6</t>
+  </si>
+  <si>
+    <t>-12, -16</t>
+  </si>
+  <si>
+    <t>18, 6</t>
+  </si>
+  <si>
+    <t>-16, 6</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>7, 11</t>
+  </si>
+  <si>
+    <t>7, 10</t>
+  </si>
+  <si>
+    <t>-18, 15</t>
+  </si>
+  <si>
+    <t>-18, -11</t>
+  </si>
+  <si>
+    <t>15, 2</t>
+  </si>
+  <si>
+    <t>15, -11</t>
+  </si>
+  <si>
+    <t>15, 11</t>
+  </si>
+  <si>
+    <t>2, -11</t>
+  </si>
+  <si>
+    <t>2, 15</t>
+  </si>
+  <si>
+    <t>-11, 11</t>
+  </si>
+  <si>
+    <t>-11, 15</t>
+  </si>
+  <si>
+    <t>11, 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,19 +870,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="161"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -860,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,21 +982,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,13 +997,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,110 +1351,110 @@
     <row r="1" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="18">
+      <c r="C1" s="26">
         <v>17</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17">
+      <c r="D1" s="26"/>
+      <c r="E1" s="25">
         <v>-17</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="19">
+      <c r="F1" s="25"/>
+      <c r="G1" s="24">
         <v>19</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="18">
+      <c r="H1" s="24"/>
+      <c r="I1" s="26">
         <v>-19</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26">
         <v>9</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="17">
+      <c r="L1" s="26"/>
+      <c r="M1" s="25">
         <v>-9</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="19">
+      <c r="N1" s="25"/>
+      <c r="O1" s="24">
         <v>7</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="18">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="26">
         <v>-7</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="19">
+      <c r="R1" s="26"/>
+      <c r="S1" s="24">
         <v>10</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="18">
+      <c r="T1" s="24"/>
+      <c r="U1" s="26">
         <v>-10</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26">
         <v>11</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="17">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="25">
         <v>-11</v>
       </c>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="18">
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="26">
         <v>14</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="17">
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="25">
         <v>-14</v>
       </c>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="19">
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="24">
         <v>15</v>
       </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="18">
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="26">
         <v>-15</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18">
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26">
         <v>4</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="17">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="25">
         <v>-4</v>
       </c>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="18">
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="26">
         <v>18</v>
       </c>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="17">
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="25">
         <v>-18</v>
       </c>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="18">
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="26">
         <v>2</v>
       </c>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="17">
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="25">
         <v>-2</v>
       </c>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="19">
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="24">
         <v>8</v>
       </c>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="18">
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="26">
         <v>-8</v>
       </c>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="19">
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="24">
         <v>13</v>
       </c>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="17">
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="25">
         <v>-13</v>
       </c>
-      <c r="BB1" s="17"/>
+      <c r="BB1" s="25"/>
       <c r="BD1" s="9" t="s">
         <v>108</v>
       </c>
@@ -6908,14 +6989,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -6928,12 +7007,14 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7087,32 +7168,32 @@
     <row r="1" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="19">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="17">
+      <c r="C1" s="24">
+        <v>1</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25">
         <v>-1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="19">
+      <c r="F1" s="25"/>
+      <c r="G1" s="24">
         <v>2</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="17">
+      <c r="H1" s="24"/>
+      <c r="I1" s="25">
         <v>-2</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="19">
+      <c r="J1" s="25"/>
+      <c r="K1" s="24">
         <v>3</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="17">
+      <c r="L1" s="24"/>
+      <c r="M1" s="25">
         <v>-3</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7281,152 +7362,152 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="6.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="28" customWidth="1"/>
-    <col min="6" max="16" width="6.140625" style="28" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="28" customWidth="1"/>
-    <col min="18" max="20" width="6.140625" style="28" customWidth="1"/>
-    <col min="21" max="26" width="6.140625" style="29" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" style="29" customWidth="1"/>
-    <col min="28" max="62" width="6.140625" style="29" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="22" customWidth="1"/>
+    <col min="6" max="16" width="6.140625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="22" customWidth="1"/>
+    <col min="18" max="20" width="6.140625" style="22" customWidth="1"/>
+    <col min="21" max="26" width="6.140625" style="23" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" style="23" customWidth="1"/>
+    <col min="28" max="62" width="6.140625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="20">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21">
+      <c r="C1" s="27">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28">
         <v>-1</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="20">
+      <c r="F1" s="28"/>
+      <c r="G1" s="27">
         <v>5</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21">
+      <c r="H1" s="27"/>
+      <c r="I1" s="28">
         <v>-5</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="20">
+      <c r="J1" s="28"/>
+      <c r="K1" s="27">
         <v>4</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21">
+      <c r="L1" s="27"/>
+      <c r="M1" s="28">
         <v>-4</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="20">
+      <c r="N1" s="28"/>
+      <c r="O1" s="27">
         <v>12</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28">
         <v>-12</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="20">
+      <c r="R1" s="28"/>
+      <c r="S1" s="27">
         <v>15</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="21">
+      <c r="T1" s="27"/>
+      <c r="U1" s="28">
         <v>-15</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="20">
+      <c r="V1" s="28"/>
+      <c r="W1" s="27">
         <v>18</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="21">
+      <c r="X1" s="27"/>
+      <c r="Y1" s="28">
         <v>-18</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="20">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="27">
         <v>16</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="21">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="28">
         <v>-16</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="20">
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="27">
         <v>14</v>
       </c>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="21">
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="28">
         <v>-14</v>
       </c>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="20">
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="27">
         <v>8</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="21">
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="28">
         <v>-8</v>
       </c>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="20">
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="27">
         <v>9</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="21">
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="28">
         <v>-9</v>
       </c>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="20">
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="27">
         <v>20</v>
       </c>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="21">
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="28">
         <v>-20</v>
       </c>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="20">
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="27">
         <v>6</v>
       </c>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="21">
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="28">
         <v>-6</v>
       </c>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="20">
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="27">
         <v>3</v>
       </c>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="21">
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="28">
         <v>-3</v>
       </c>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="20">
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="27">
         <v>10</v>
       </c>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="21" t="s">
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="20">
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="27">
         <v>11</v>
       </c>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="21">
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="28">
         <v>-11</v>
       </c>
-      <c r="BJ1" s="21"/>
+      <c r="BJ1" s="28"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7435,184 +7516,184 @@
       <c r="B2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="23" t="s">
+      <c r="AD2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="22" t="s">
+      <c r="AE2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AF2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="23" t="s">
+      <c r="AG2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="23" t="s">
+      <c r="AH2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="23" t="s">
+      <c r="AK2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="23" t="s">
+      <c r="AL2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AM2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="22" t="s">
+      <c r="AN2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="23" t="s">
+      <c r="AO2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AP2" s="23" t="s">
+      <c r="AP2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="22" t="s">
+      <c r="AQ2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AR2" s="22" t="s">
+      <c r="AR2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AS2" s="23" t="s">
+      <c r="AS2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="23" t="s">
+      <c r="AT2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AU2" s="22" t="s">
+      <c r="AU2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="22" t="s">
+      <c r="AV2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="23" t="s">
+      <c r="AW2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="23" t="s">
+      <c r="AX2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AY2" s="22" t="s">
+      <c r="AY2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="22" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="23" t="s">
+      <c r="BA2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="23" t="s">
+      <c r="BB2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="22" t="s">
+      <c r="BC2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BD2" s="22" t="s">
+      <c r="BD2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="BE2" s="23" t="s">
+      <c r="BE2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="BF2" s="23" t="s">
+      <c r="BF2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="BG2" s="22" t="s">
+      <c r="BG2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="22" t="s">
+      <c r="BH2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="23" t="s">
+      <c r="BI2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" s="23" t="s">
+      <c r="BJ2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7623,80 +7704,80 @@
       <c r="B3" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="26" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24" t="s">
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="24" t="s">
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="26" t="s">
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="24" t="s">
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="24" t="s">
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="26"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="21"/>
+      <c r="BB3" s="21"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="21"/>
+      <c r="BJ3" s="21"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -7705,80 +7786,80 @@
       <c r="B4" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="26" t="s">
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="24" t="s">
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="26" t="s">
+      <c r="X4" s="19"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24" t="s">
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="24"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="26"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="26"/>
-      <c r="BJ4" s="26"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="21"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="21"/>
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -7787,70 +7868,70 @@
       <c r="B5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="26"/>
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="24"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="26"/>
-      <c r="BB5" s="26"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="26"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="26"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -7859,74 +7940,74 @@
       <c r="B6" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="26" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24" t="s">
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="26"/>
-      <c r="BB6" s="26"/>
-      <c r="BC6" s="24"/>
-      <c r="BD6" s="24"/>
-      <c r="BE6" s="26"/>
-      <c r="BF6" s="26"/>
-      <c r="BG6" s="24"/>
-      <c r="BH6" s="24"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="26"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -7935,72 +8016,72 @@
       <c r="B7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="26" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="R7" s="21"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24" t="s">
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="24"/>
-      <c r="AV7" s="24"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="26"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="26"/>
-      <c r="BF7" s="26"/>
-      <c r="BG7" s="24"/>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="26"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8009,72 +8090,72 @@
       <c r="B8" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="26" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
+      <c r="N8" s="21"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="26"/>
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="24"/>
-      <c r="AZ8" s="24"/>
-      <c r="BA8" s="26"/>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="24"/>
-      <c r="BD8" s="24"/>
-      <c r="BE8" s="26"/>
-      <c r="BF8" s="26"/>
-      <c r="BG8" s="24"/>
-      <c r="BH8" s="24"/>
-      <c r="BI8" s="26"/>
-      <c r="BJ8" s="26"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="19"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -8083,70 +8164,70 @@
       <c r="B9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26" t="s">
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26"/>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -8155,78 +8236,78 @@
       <c r="B10" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="24" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="T10" s="24"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="26" t="s">
+      <c r="T10" s="19"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="24" t="s">
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="26" t="s">
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="26" t="s">
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="26"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="24"/>
-      <c r="BE10" s="26"/>
-      <c r="BF10" s="26"/>
-      <c r="BG10" s="24"/>
-      <c r="BH10" s="24"/>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="26"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -8235,78 +8316,78 @@
       <c r="B11" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="26" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24" t="s">
+      <c r="R11" s="21"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="26" t="s">
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="AH11" s="26" t="s">
+      <c r="AH11" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="26" t="s">
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="26" t="s">
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="24"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="26"/>
-      <c r="BF11" s="26"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="26"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="19"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="19"/>
+      <c r="BH11" s="19"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -8315,70 +8396,70 @@
       <c r="B12" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="24"/>
-      <c r="AZ12" s="24"/>
-      <c r="BA12" s="26"/>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="26"/>
-      <c r="BF12" s="26"/>
-      <c r="BG12" s="24"/>
-      <c r="BH12" s="24"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="26"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="21"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="19"/>
+      <c r="BH12" s="19"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -8387,90 +8468,90 @@
       <c r="B13" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="24" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="24" t="s">
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="T13" s="24"/>
-      <c r="U13" s="26" t="s">
+      <c r="T13" s="19"/>
+      <c r="U13" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="V13" s="26" t="s">
+      <c r="V13" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="26" t="s">
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24" t="s">
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24" t="s">
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="26"/>
-      <c r="BF13" s="26" t="s">
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="19"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="26"/>
-      <c r="BJ13" s="26"/>
+      <c r="BG13" s="19"/>
+      <c r="BH13" s="19"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -8479,70 +8560,70 @@
       <c r="B14" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="24" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="26" t="s">
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="R14" s="26"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="26"/>
-      <c r="AT14" s="26"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="24"/>
-      <c r="AW14" s="26"/>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="24"/>
-      <c r="BA14" s="26"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="24"/>
-      <c r="BD14" s="24"/>
-      <c r="BE14" s="26"/>
-      <c r="BF14" s="26"/>
-      <c r="BG14" s="24"/>
-      <c r="BH14" s="24"/>
-      <c r="BI14" s="26"/>
-      <c r="BJ14" s="26"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="19"/>
+      <c r="BD14" s="19"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="19"/>
+      <c r="BH14" s="19"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -8551,70 +8632,70 @@
       <c r="B15" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="26" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="24" t="s">
+      <c r="N15" s="21"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="T15" s="24"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="24"/>
-      <c r="AV15" s="24"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="24"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="26"/>
-      <c r="BF15" s="26"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="19"/>
+      <c r="BD15" s="19"/>
+      <c r="BE15" s="21"/>
+      <c r="BF15" s="21"/>
+      <c r="BG15" s="19"/>
+      <c r="BH15" s="19"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="21"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -8623,78 +8704,78 @@
       <c r="B16" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="19">
         <v>15</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="26" t="s">
+      <c r="H16" s="19"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="V16" s="26"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="26" t="s">
+      <c r="V16" s="21"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="24" t="s">
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="24"/>
-      <c r="AV16" s="24"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="24"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="26"/>
-      <c r="BF16" s="26"/>
-      <c r="BG16" s="24"/>
-      <c r="BH16" s="24"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="26"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="21"/>
+      <c r="AT16" s="21"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="19"/>
+      <c r="BE16" s="21"/>
+      <c r="BF16" s="21"/>
+      <c r="BG16" s="19"/>
+      <c r="BH16" s="19"/>
+      <c r="BI16" s="21"/>
+      <c r="BJ16" s="21"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -8703,78 +8784,78 @@
       <c r="B17" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26" t="s">
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="AU17" s="24"/>
-      <c r="AV17" s="24"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="26"/>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="26"/>
-      <c r="BF17" s="26"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="26"/>
-      <c r="BJ17" s="26"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="19"/>
+      <c r="BH17" s="19"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -8783,78 +8864,78 @@
       <c r="B18" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="19">
         <v>17</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="24" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26" t="s">
+      <c r="H18" s="19"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="26" t="s">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="26" t="s">
+      <c r="N18" s="21"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="26"/>
-      <c r="BF18" s="26"/>
-      <c r="BG18" s="24"/>
-      <c r="BH18" s="24"/>
-      <c r="BI18" s="26" t="s">
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="21"/>
+      <c r="AT18" s="21"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="21"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="21"/>
+      <c r="BB18" s="21"/>
+      <c r="BC18" s="19"/>
+      <c r="BD18" s="19"/>
+      <c r="BE18" s="21"/>
+      <c r="BF18" s="21"/>
+      <c r="BG18" s="19"/>
+      <c r="BH18" s="19"/>
+      <c r="BI18" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="BJ18" s="26"/>
+      <c r="BJ18" s="21"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -8863,1558 +8944,268 @@
       <c r="B19" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="19">
         <v>-14</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="26" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="R19" s="25"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24" t="s">
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="24" t="s">
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="24"/>
-      <c r="AV19" s="24"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="26"/>
-      <c r="BF19" s="25"/>
-      <c r="BG19" s="24"/>
-      <c r="BH19" s="24"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="25"/>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="24"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="24"/>
-      <c r="AV20" s="24"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="24"/>
-      <c r="AZ20" s="24"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="24"/>
-      <c r="BD20" s="24"/>
-      <c r="BE20" s="26"/>
-      <c r="BF20" s="26"/>
-      <c r="BG20" s="24"/>
-      <c r="BH20" s="24"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="21"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="20"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="24"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="24"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
+      <c r="C21" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="24"/>
-      <c r="AV22" s="24"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="24"/>
-      <c r="AZ22" s="24"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="24"/>
-      <c r="BD22" s="24"/>
-      <c r="BE22" s="26"/>
-      <c r="BF22" s="26"/>
-      <c r="BG22" s="24"/>
-      <c r="BH22" s="24"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
+      <c r="C22" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="24"/>
-      <c r="AV23" s="24"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="24"/>
-      <c r="AZ23" s="24"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="24"/>
-      <c r="BD23" s="24"/>
-      <c r="BE23" s="26"/>
-      <c r="BF23" s="26"/>
-      <c r="BG23" s="24"/>
-      <c r="BH23" s="24"/>
-      <c r="BI23" s="26"/>
-      <c r="BJ23" s="26"/>
+      <c r="C23" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="24"/>
-      <c r="AR24" s="24"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="24"/>
-      <c r="AV24" s="24"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="24"/>
-      <c r="AZ24" s="24"/>
-      <c r="BA24" s="26"/>
-      <c r="BB24" s="26"/>
-      <c r="BC24" s="24"/>
-      <c r="BD24" s="24"/>
-      <c r="BE24" s="26"/>
-      <c r="BF24" s="26"/>
-      <c r="BG24" s="24"/>
-      <c r="BH24" s="24"/>
-      <c r="BI24" s="26"/>
-      <c r="BJ24" s="26"/>
+      <c r="C24" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="24"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="24"/>
-      <c r="AR25" s="24"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="26"/>
-      <c r="AU25" s="24"/>
-      <c r="AV25" s="24"/>
-      <c r="AW25" s="26"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="24"/>
-      <c r="BA25" s="26"/>
-      <c r="BB25" s="26"/>
-      <c r="BC25" s="24"/>
-      <c r="BD25" s="24"/>
-      <c r="BE25" s="26"/>
-      <c r="BF25" s="26"/>
-      <c r="BG25" s="24"/>
-      <c r="BH25" s="24"/>
-      <c r="BI25" s="26"/>
-      <c r="BJ25" s="26"/>
+      <c r="C25" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="24"/>
-      <c r="AR26" s="24"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="24"/>
-      <c r="AV26" s="24"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="24"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
-      <c r="BC26" s="24"/>
-      <c r="BD26" s="24"/>
-      <c r="BE26" s="26"/>
-      <c r="BF26" s="26"/>
-      <c r="BG26" s="24"/>
-      <c r="BH26" s="24"/>
-      <c r="BI26" s="26"/>
-      <c r="BJ26" s="26"/>
+      <c r="C26" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="26"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="24"/>
-      <c r="AR27" s="24"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="24"/>
-      <c r="AV27" s="24"/>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="24"/>
-      <c r="AZ27" s="24"/>
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="24"/>
-      <c r="BD27" s="24"/>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="24"/>
-      <c r="BH27" s="24"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
+      <c r="C27" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="26"/>
-      <c r="AP28" s="26"/>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-      <c r="AS28" s="26"/>
-      <c r="AT28" s="26"/>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="26"/>
-      <c r="AX28" s="26"/>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="26"/>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="26"/>
-      <c r="BF28" s="26"/>
-      <c r="BG28" s="24"/>
-      <c r="BH28" s="24"/>
-      <c r="BI28" s="26"/>
-      <c r="BJ28" s="26"/>
+      <c r="C28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="26"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="24"/>
-      <c r="AR29" s="24"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="24"/>
-      <c r="AV29" s="24"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="24"/>
-      <c r="AZ29" s="24"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="24"/>
-      <c r="BD29" s="24"/>
-      <c r="BE29" s="26"/>
-      <c r="BF29" s="26"/>
-      <c r="BG29" s="24"/>
-      <c r="BH29" s="24"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
+      <c r="C29" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="24"/>
-      <c r="AO30" s="26"/>
-      <c r="AP30" s="26"/>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-      <c r="AS30" s="26"/>
-      <c r="AT30" s="26"/>
-      <c r="AU30" s="24"/>
-      <c r="AV30" s="24"/>
-      <c r="AW30" s="26"/>
-      <c r="AX30" s="26"/>
-      <c r="AY30" s="24"/>
-      <c r="AZ30" s="24"/>
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="26"/>
-      <c r="BC30" s="24"/>
-      <c r="BD30" s="24"/>
-      <c r="BE30" s="26"/>
-      <c r="BF30" s="26"/>
-      <c r="BG30" s="24"/>
-      <c r="BH30" s="24"/>
-      <c r="BI30" s="26"/>
-      <c r="BJ30" s="26"/>
+      <c r="C30" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="26"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-      <c r="AS31" s="26"/>
-      <c r="AT31" s="26"/>
-      <c r="AU31" s="24"/>
-      <c r="AV31" s="24"/>
-      <c r="AW31" s="26"/>
-      <c r="AX31" s="26"/>
-      <c r="AY31" s="24"/>
-      <c r="AZ31" s="24"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="26"/>
-      <c r="BC31" s="24"/>
-      <c r="BD31" s="24"/>
-      <c r="BE31" s="26"/>
-      <c r="BF31" s="26"/>
-      <c r="BG31" s="24"/>
-      <c r="BH31" s="24"/>
-      <c r="BI31" s="26"/>
-      <c r="BJ31" s="26"/>
+      <c r="C31" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="24"/>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="24"/>
-      <c r="AN32" s="24"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="26"/>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="24"/>
-      <c r="AS32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AU32" s="24"/>
-      <c r="AV32" s="24"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="24"/>
-      <c r="AZ32" s="24"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BC32" s="24"/>
-      <c r="BD32" s="24"/>
-      <c r="BE32" s="26"/>
-      <c r="BF32" s="26"/>
-      <c r="BG32" s="24"/>
-      <c r="BH32" s="24"/>
-      <c r="BI32" s="26"/>
-      <c r="BJ32" s="26"/>
-    </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="24"/>
-      <c r="AJ33" s="24"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="24"/>
-      <c r="AR33" s="24"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="24"/>
-      <c r="AV33" s="24"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="26"/>
-      <c r="AY33" s="24"/>
-      <c r="AZ33" s="24"/>
-      <c r="BA33" s="26"/>
-      <c r="BB33" s="26"/>
-      <c r="BC33" s="24"/>
-      <c r="BD33" s="24"/>
-      <c r="BE33" s="26"/>
-      <c r="BF33" s="26"/>
-      <c r="BG33" s="24"/>
-      <c r="BH33" s="24"/>
-      <c r="BI33" s="26"/>
-      <c r="BJ33" s="26"/>
-    </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="24"/>
-      <c r="AJ34" s="24"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="24"/>
-      <c r="AN34" s="24"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="24"/>
-      <c r="AR34" s="24"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="24"/>
-      <c r="AV34" s="24"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="24"/>
-      <c r="AZ34" s="24"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26"/>
-      <c r="BC34" s="24"/>
-      <c r="BD34" s="24"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26"/>
-      <c r="BG34" s="24"/>
-      <c r="BH34" s="24"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26"/>
-    </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="24"/>
-      <c r="AJ35" s="24"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="24"/>
-      <c r="AN35" s="24"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="24"/>
-      <c r="AR35" s="24"/>
-      <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="AU35" s="24"/>
-      <c r="AV35" s="24"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="24"/>
-      <c r="AZ35" s="24"/>
-      <c r="BA35" s="26"/>
-      <c r="BB35" s="26"/>
-      <c r="BC35" s="24"/>
-      <c r="BD35" s="24"/>
-      <c r="BE35" s="26"/>
-      <c r="BF35" s="26"/>
-      <c r="BG35" s="24"/>
-      <c r="BH35" s="24"/>
-      <c r="BI35" s="26"/>
-      <c r="BJ35" s="26"/>
-    </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="24"/>
-      <c r="AV36" s="24"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="24"/>
-      <c r="AZ36" s="24"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26"/>
-      <c r="BC36" s="24"/>
-      <c r="BD36" s="24"/>
-      <c r="BE36" s="26"/>
-      <c r="BF36" s="26"/>
-      <c r="BG36" s="24"/>
-      <c r="BH36" s="24"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26"/>
-    </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="26"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="26"/>
-      <c r="AT37" s="26"/>
-      <c r="AU37" s="24"/>
-      <c r="AV37" s="24"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="26"/>
-      <c r="AY37" s="24"/>
-      <c r="AZ37" s="24"/>
-      <c r="BA37" s="26"/>
-      <c r="BB37" s="26"/>
-      <c r="BC37" s="24"/>
-      <c r="BD37" s="24"/>
-      <c r="BE37" s="26"/>
-      <c r="BF37" s="26"/>
-      <c r="BG37" s="24"/>
-      <c r="BH37" s="24"/>
-      <c r="BI37" s="26"/>
-      <c r="BJ37" s="26"/>
-    </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="26"/>
-      <c r="AP38" s="26"/>
-      <c r="AQ38" s="24"/>
-      <c r="AR38" s="24"/>
-      <c r="AS38" s="26"/>
-      <c r="AT38" s="26"/>
-      <c r="AU38" s="24"/>
-      <c r="AV38" s="24"/>
-      <c r="AW38" s="26"/>
-      <c r="AX38" s="26"/>
-      <c r="AY38" s="24"/>
-      <c r="AZ38" s="24"/>
-      <c r="BA38" s="26"/>
-      <c r="BB38" s="26"/>
-      <c r="BC38" s="24"/>
-      <c r="BD38" s="24"/>
-      <c r="BE38" s="26"/>
-      <c r="BF38" s="26"/>
-      <c r="BG38" s="24"/>
-      <c r="BH38" s="24"/>
-      <c r="BI38" s="26"/>
-      <c r="BJ38" s="26"/>
-    </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="26"/>
-      <c r="AT39" s="26"/>
-      <c r="AU39" s="24"/>
-      <c r="AV39" s="24"/>
-      <c r="AW39" s="26"/>
-      <c r="AX39" s="26"/>
-      <c r="AY39" s="24"/>
-      <c r="AZ39" s="24"/>
-      <c r="BA39" s="26"/>
-      <c r="BB39" s="26"/>
-      <c r="BC39" s="24"/>
-      <c r="BD39" s="24"/>
-      <c r="BE39" s="26"/>
-      <c r="BF39" s="26"/>
-      <c r="BG39" s="24"/>
-      <c r="BH39" s="24"/>
-      <c r="BI39" s="26"/>
-      <c r="BJ39" s="26"/>
-    </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="26"/>
-      <c r="AP40" s="26"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="26"/>
-      <c r="AT40" s="26"/>
-      <c r="AU40" s="24"/>
-      <c r="AV40" s="24"/>
-      <c r="AW40" s="26"/>
-      <c r="AX40" s="26"/>
-      <c r="AY40" s="24"/>
-      <c r="AZ40" s="24"/>
-      <c r="BA40" s="26"/>
-      <c r="BB40" s="26"/>
-      <c r="BC40" s="24"/>
-      <c r="BD40" s="24"/>
-      <c r="BE40" s="26"/>
-      <c r="BF40" s="26"/>
-      <c r="BG40" s="24"/>
-      <c r="BH40" s="24"/>
-      <c r="BI40" s="26"/>
-      <c r="BJ40" s="26"/>
-    </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="24"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="24"/>
-      <c r="AJ41" s="24"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="24"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="26"/>
-      <c r="AP41" s="26"/>
-      <c r="AQ41" s="24"/>
-      <c r="AR41" s="24"/>
-      <c r="AS41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="AU41" s="24"/>
-      <c r="AV41" s="24"/>
-      <c r="AW41" s="26"/>
-      <c r="AX41" s="26"/>
-      <c r="AY41" s="24"/>
-      <c r="AZ41" s="24"/>
-      <c r="BA41" s="26"/>
-      <c r="BB41" s="26"/>
-      <c r="BC41" s="24"/>
-      <c r="BD41" s="24"/>
-      <c r="BE41" s="26"/>
-      <c r="BF41" s="26"/>
-      <c r="BG41" s="24"/>
-      <c r="BH41" s="24"/>
-      <c r="BI41" s="26"/>
-      <c r="BJ41" s="26"/>
-    </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="24"/>
-      <c r="AJ42" s="24"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="26"/>
-      <c r="AP42" s="26"/>
-      <c r="AQ42" s="24"/>
-      <c r="AR42" s="24"/>
-      <c r="AS42" s="26"/>
-      <c r="AT42" s="26"/>
-      <c r="AU42" s="24"/>
-      <c r="AV42" s="24"/>
-      <c r="AW42" s="26"/>
-      <c r="AX42" s="26"/>
-      <c r="AY42" s="24"/>
-      <c r="AZ42" s="24"/>
-      <c r="BA42" s="26"/>
-      <c r="BB42" s="26"/>
-      <c r="BC42" s="24"/>
-      <c r="BD42" s="24"/>
-      <c r="BE42" s="26"/>
-      <c r="BF42" s="26"/>
-      <c r="BG42" s="24"/>
-      <c r="BH42" s="24"/>
-      <c r="BI42" s="26"/>
-      <c r="BJ42" s="26"/>
+      <c r="C32" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
+  <mergeCells count="31">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
@@ -10422,27 +9213,13 @@
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F1AED6-9635-4933-A9CF-B31E02D9AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="357">
   <si>
     <t>-6 -8</t>
   </si>
@@ -697,12 +698,6 @@
     <t>-14, 15</t>
   </si>
   <si>
-    <t>όταν -12 = Α και 15 = Α τότε 7 με 11 έχει αντίφαση όπως και το -17 με το 11 στο 2</t>
-  </si>
-  <si>
-    <t>όταν -12 = Α και 18 = Α τότε 7 με 10 έχει αντίφαση όπως και το -17 με το 10 στο 2</t>
-  </si>
-  <si>
     <t>όταν 5 = Α και -4 = Α τότε -18 με 15 έχει αντίφαση στο 3</t>
   </si>
   <si>
@@ -772,9 +767,6 @@
     <t>-16, 6</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>7, 11</t>
   </si>
   <si>
@@ -809,13 +801,301 @@
   </si>
   <si>
     <t>11, 15</t>
+  </si>
+  <si>
+    <t>-9, -17</t>
+  </si>
+  <si>
+    <t>-11, -17</t>
+  </si>
+  <si>
+    <t>-1, -12</t>
+  </si>
+  <si>
+    <t>-9, -14</t>
+  </si>
+  <si>
+    <t>-1, 8</t>
+  </si>
+  <si>
+    <t>17, -17</t>
+  </si>
+  <si>
+    <t>-12, 9</t>
+  </si>
+  <si>
+    <t>15, 10</t>
+  </si>
+  <si>
+    <t>-19, 10</t>
+  </si>
+  <si>
+    <t>-12, 16</t>
+  </si>
+  <si>
+    <t>-12, -14</t>
+  </si>
+  <si>
+    <t>16, -14</t>
+  </si>
+  <si>
+    <t>10, -9</t>
+  </si>
+  <si>
+    <t>16, -8</t>
+  </si>
+  <si>
+    <t>-9, -19</t>
+  </si>
+  <si>
+    <t>-14, 8</t>
+  </si>
+  <si>
+    <t>-14, -20</t>
+  </si>
+  <si>
+    <t>-19, 17</t>
+  </si>
+  <si>
+    <t>5, -5</t>
+  </si>
+  <si>
+    <t>17, 19</t>
+  </si>
+  <si>
+    <t>5, 4</t>
+  </si>
+  <si>
+    <t>5, 12</t>
+  </si>
+  <si>
+    <t>17, 14</t>
+  </si>
+  <si>
+    <t>17, 9</t>
+  </si>
+  <si>
+    <t>5, -15</t>
+  </si>
+  <si>
+    <t>17, -10</t>
+  </si>
+  <si>
+    <t>17, 2</t>
+  </si>
+  <si>
+    <t>5, 3</t>
+  </si>
+  <si>
+    <t>17, 7</t>
+  </si>
+  <si>
+    <t>-5, 4</t>
+  </si>
+  <si>
+    <t>19, -10</t>
+  </si>
+  <si>
+    <t>-5, 15</t>
+  </si>
+  <si>
+    <t>19, -9</t>
+  </si>
+  <si>
+    <t>19, 10</t>
+  </si>
+  <si>
+    <t>-10, 9</t>
+  </si>
+  <si>
+    <t>4, 12</t>
+  </si>
+  <si>
+    <t>4, 8</t>
+  </si>
+  <si>
+    <t>-10, 2</t>
+  </si>
+  <si>
+    <t>4, 3</t>
+  </si>
+  <si>
+    <t>4, -10</t>
+  </si>
+  <si>
+    <t>-10, 7</t>
+  </si>
+  <si>
+    <t>4, 15</t>
+  </si>
+  <si>
+    <t>9, -9</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>14, -9</t>
+  </si>
+  <si>
+    <t>14, 10</t>
+  </si>
+  <si>
+    <t>12, 15</t>
+  </si>
+  <si>
+    <t>12, -15</t>
+  </si>
+  <si>
+    <t>12, -18</t>
+  </si>
+  <si>
+    <t>14, 9</t>
+  </si>
+  <si>
+    <t>15, -15</t>
+  </si>
+  <si>
+    <t>-9, 10</t>
+  </si>
+  <si>
+    <t>-9, 2</t>
+  </si>
+  <si>
+    <t>15, 8</t>
+  </si>
+  <si>
+    <t>15, 3</t>
+  </si>
+  <si>
+    <t>15, -10</t>
+  </si>
+  <si>
+    <t>-9, 7</t>
+  </si>
+  <si>
+    <t>9, -10</t>
+  </si>
+  <si>
+    <t>-15, 8</t>
+  </si>
+  <si>
+    <t>9, 2</t>
+  </si>
+  <si>
+    <t>-15, 3</t>
+  </si>
+  <si>
+    <t>-15, -10</t>
+  </si>
+  <si>
+    <t>9, 7</t>
+  </si>
+  <si>
+    <t>-15, -18</t>
+  </si>
+  <si>
+    <t>-10, 10</t>
+  </si>
+  <si>
+    <t>1, -1</t>
+  </si>
+  <si>
+    <t>15, -17</t>
+  </si>
+  <si>
+    <t>-17, -4</t>
+  </si>
+  <si>
+    <t>-1, -15</t>
+  </si>
+  <si>
+    <t>-17, 4</t>
+  </si>
+  <si>
+    <t>-17, -9</t>
+  </si>
+  <si>
+    <t>-1, -18</t>
+  </si>
+  <si>
+    <t>-17, -7</t>
+  </si>
+  <si>
+    <t>-1, 4</t>
+  </si>
+  <si>
+    <t>-1, -4</t>
+  </si>
+  <si>
+    <t>-14, 19</t>
+  </si>
+  <si>
+    <t>-14, -15</t>
+  </si>
+  <si>
+    <t>-19, -14</t>
+  </si>
+  <si>
+    <t>-19, -15</t>
+  </si>
+  <si>
+    <t>-19, 19</t>
+  </si>
+  <si>
+    <t>4, -4</t>
+  </si>
+  <si>
+    <t>-14, -19</t>
+  </si>
+  <si>
+    <t>-14, 7</t>
+  </si>
+  <si>
+    <t>1, 18</t>
+  </si>
+  <si>
+    <t>-14, -11</t>
+  </si>
+  <si>
+    <t>-19, -9</t>
+  </si>
+  <si>
+    <t>7, -4</t>
+  </si>
+  <si>
+    <t>-19, -4</t>
+  </si>
+  <si>
+    <t>-1, 16</t>
+  </si>
+  <si>
+    <t>7, -14</t>
+  </si>
+  <si>
+    <t>7, 15</t>
+  </si>
+  <si>
+    <t>-19, 15</t>
+  </si>
+  <si>
+    <t>-4, -11</t>
+  </si>
+  <si>
+    <t>18, -18</t>
+  </si>
+  <si>
+    <t>-17, 11</t>
+  </si>
+  <si>
+    <t>-17, 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +1158,34 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -932,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,13 +1269,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,7 +1281,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,48 +1290,71 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,6 +1449,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1156,6 +1501,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1331,7 +1693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1344,7 +1706,7 @@
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="6"/>
-    <col min="3" max="54" width="3.85546875" style="12" customWidth="1"/>
+    <col min="3" max="54" width="3.85546875" style="1" customWidth="1"/>
     <col min="55" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1359,10 +1721,10 @@
         <v>-17</v>
       </c>
       <c r="F1" s="25"/>
-      <c r="G1" s="24">
+      <c r="G1" s="27">
         <v>19</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="26">
         <v>-19</v>
       </c>
@@ -1375,18 +1737,18 @@
         <v>-9</v>
       </c>
       <c r="N1" s="25"/>
-      <c r="O1" s="24">
+      <c r="O1" s="27">
         <v>7</v>
       </c>
-      <c r="P1" s="24"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="26">
         <v>-7</v>
       </c>
       <c r="R1" s="26"/>
-      <c r="S1" s="24">
+      <c r="S1" s="27">
         <v>10</v>
       </c>
-      <c r="T1" s="24"/>
+      <c r="T1" s="27"/>
       <c r="U1" s="26">
         <v>-10</v>
       </c>
@@ -1407,10 +1769,10 @@
         <v>-14</v>
       </c>
       <c r="AD1" s="25"/>
-      <c r="AE1" s="24">
+      <c r="AE1" s="27">
         <v>15</v>
       </c>
-      <c r="AF1" s="24"/>
+      <c r="AF1" s="27"/>
       <c r="AG1" s="26">
         <v>-15</v>
       </c>
@@ -1439,18 +1801,18 @@
         <v>-2</v>
       </c>
       <c r="AT1" s="25"/>
-      <c r="AU1" s="24">
+      <c r="AU1" s="27">
         <v>8</v>
       </c>
-      <c r="AV1" s="24"/>
+      <c r="AV1" s="27"/>
       <c r="AW1" s="26">
         <v>-8</v>
       </c>
       <c r="AX1" s="26"/>
-      <c r="AY1" s="24">
+      <c r="AY1" s="27">
         <v>13</v>
       </c>
-      <c r="AZ1" s="24"/>
+      <c r="AZ1" s="27"/>
       <c r="BA1" s="25">
         <v>-13</v>
       </c>
@@ -1880,7 +2242,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="11"/>
@@ -1909,7 +2271,7 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="13" t="s">
+      <c r="AF7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AG7" s="11"/>
@@ -2140,7 +2502,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="P11" s="8"/>
@@ -2157,7 +2519,7 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="11"/>
-      <c r="AD11" s="13" t="s">
+      <c r="AD11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AE11" s="8"/>
@@ -3442,7 +3804,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L32" s="8"/>
@@ -3453,7 +3815,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="8"/>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="12" t="s">
         <v>1</v>
       </c>
       <c r="U32" s="11" t="s">
@@ -3506,7 +3868,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J33" s="11"/>
@@ -3529,7 +3891,7 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="11"/>
-      <c r="AD33" s="13" t="s">
+      <c r="AD33" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AE33" s="8"/>
@@ -3690,7 +4052,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="11"/>
@@ -3701,7 +4063,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="13" t="s">
+      <c r="N36" s="12" t="s">
         <v>1</v>
       </c>
       <c r="O36" s="8"/>
@@ -3968,12 +4330,12 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="13" t="s">
+      <c r="AE40" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AF40" s="8"/>
       <c r="AG40" s="11"/>
-      <c r="AH40" s="13" t="s">
+      <c r="AH40" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AI40" s="8"/>
@@ -3989,7 +4351,7 @@
       <c r="AS40" s="11"/>
       <c r="AT40" s="11"/>
       <c r="AU40" s="8"/>
-      <c r="AV40" s="13" t="s">
+      <c r="AV40" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AW40" s="11"/>
@@ -4006,14 +4368,14 @@
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I41" s="11"/>
@@ -6184,7 +6546,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H76" s="8"/>
@@ -6205,7 +6567,7 @@
       <c r="W76" s="8"/>
       <c r="X76" s="8"/>
       <c r="Y76" s="11"/>
-      <c r="Z76" s="13" t="s">
+      <c r="Z76" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AA76" s="8"/>
@@ -6440,7 +6802,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
-      <c r="M80" s="13" t="s">
+      <c r="M80" s="12" t="s">
         <v>1</v>
       </c>
       <c r="N80" s="11"/>
@@ -6451,7 +6813,7 @@
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
       <c r="U80" s="11"/>
-      <c r="V80" s="13" t="s">
+      <c r="V80" s="12" t="s">
         <v>1</v>
       </c>
       <c r="W80" s="8"/>
@@ -6952,14 +7314,14 @@
       <c r="V88" s="11"/>
       <c r="W88" s="8"/>
       <c r="X88" s="8"/>
-      <c r="Y88" s="13" t="s">
+      <c r="Y88" s="12" t="s">
         <v>1</v>
       </c>
       <c r="Z88" s="11"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
       <c r="AC88" s="11"/>
-      <c r="AD88" s="13" t="s">
+      <c r="AD88" s="12" t="s">
         <v>1</v>
       </c>
       <c r="AE88" s="8"/>
@@ -6989,12 +7351,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7007,14 +7371,12 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7022,7 +7384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7031,7 +7393,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="4.42578125" style="1"/>
   </cols>
@@ -7042,7 +7404,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7050,7 +7412,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7058,7 +7420,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7066,7 +7428,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7074,7 +7436,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7082,7 +7444,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -7090,7 +7452,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7098,7 +7460,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7106,7 +7468,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7114,7 +7476,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -7122,7 +7484,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -7130,7 +7492,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7138,7 +7500,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -7151,7 +7513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7161,39 +7523,39 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="6" style="6" customWidth="1"/>
-    <col min="3" max="16" width="3.85546875" style="12" customWidth="1"/>
+    <col min="3" max="16" width="3.85546875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="24">
-        <v>1</v>
-      </c>
-      <c r="D1" s="24"/>
+      <c r="C1" s="27">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27"/>
       <c r="E1" s="25">
         <v>-1</v>
       </c>
       <c r="F1" s="25"/>
-      <c r="G1" s="24">
+      <c r="G1" s="27">
         <v>2</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="25">
         <v>-2</v>
       </c>
       <c r="J1" s="25"/>
-      <c r="K1" s="24">
+      <c r="K1" s="27">
         <v>3</v>
       </c>
-      <c r="L1" s="24"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="25">
         <v>-3</v>
       </c>
       <c r="N1" s="25"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7251,14 +7613,14 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="8"/>
@@ -7277,12 +7639,12 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="11"/>
@@ -7301,7 +7663,7 @@
       <c r="B5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="8"/>
@@ -7314,7 +7676,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="8"/>
@@ -7327,7 +7689,7 @@
       <c r="B6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8"/>
@@ -7338,7 +7700,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="11"/>
@@ -7362,148 +7724,150 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BJ113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <pane xSplit="5" ySplit="21" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="22" customWidth="1"/>
-    <col min="6" max="16" width="6.140625" style="22" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="22" customWidth="1"/>
-    <col min="18" max="20" width="6.140625" style="22" customWidth="1"/>
-    <col min="21" max="26" width="6.140625" style="23" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" style="23" customWidth="1"/>
-    <col min="28" max="62" width="6.140625" style="23" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="20" customWidth="1"/>
+    <col min="6" max="10" width="6.140625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="7" style="20" customWidth="1"/>
+    <col min="12" max="16" width="6.140625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="20" customWidth="1"/>
+    <col min="18" max="20" width="6.140625" style="20" customWidth="1"/>
+    <col min="21" max="26" width="6.140625" style="21" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" style="21" customWidth="1"/>
+    <col min="28" max="62" width="6.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="27">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27"/>
+      <c r="C1" s="30">
+        <v>1</v>
+      </c>
+      <c r="D1" s="30"/>
       <c r="E1" s="28">
         <v>-1</v>
       </c>
       <c r="F1" s="28"/>
-      <c r="G1" s="27">
+      <c r="G1" s="30">
         <v>5</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="28">
         <v>-5</v>
       </c>
       <c r="J1" s="28"/>
-      <c r="K1" s="27">
+      <c r="K1" s="30">
         <v>4</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="28">
         <v>-4</v>
       </c>
       <c r="N1" s="28"/>
-      <c r="O1" s="27">
+      <c r="O1" s="30">
         <v>12</v>
       </c>
-      <c r="P1" s="27"/>
+      <c r="P1" s="30"/>
       <c r="Q1" s="28">
         <v>-12</v>
       </c>
       <c r="R1" s="28"/>
-      <c r="S1" s="27">
+      <c r="S1" s="30">
         <v>15</v>
       </c>
-      <c r="T1" s="27"/>
+      <c r="T1" s="30"/>
       <c r="U1" s="28">
         <v>-15</v>
       </c>
       <c r="V1" s="28"/>
-      <c r="W1" s="27">
+      <c r="W1" s="30">
         <v>18</v>
       </c>
-      <c r="X1" s="27"/>
+      <c r="X1" s="30"/>
       <c r="Y1" s="28">
         <v>-18</v>
       </c>
       <c r="Z1" s="28"/>
-      <c r="AA1" s="27">
+      <c r="AA1" s="30">
         <v>16</v>
       </c>
-      <c r="AB1" s="27"/>
+      <c r="AB1" s="30"/>
       <c r="AC1" s="28">
         <v>-16</v>
       </c>
       <c r="AD1" s="28"/>
-      <c r="AE1" s="27">
+      <c r="AE1" s="30">
         <v>14</v>
       </c>
-      <c r="AF1" s="27"/>
+      <c r="AF1" s="30"/>
       <c r="AG1" s="28">
         <v>-14</v>
       </c>
       <c r="AH1" s="28"/>
-      <c r="AI1" s="27">
+      <c r="AI1" s="30">
         <v>8</v>
       </c>
-      <c r="AJ1" s="27"/>
+      <c r="AJ1" s="30"/>
       <c r="AK1" s="28">
         <v>-8</v>
       </c>
       <c r="AL1" s="28"/>
-      <c r="AM1" s="27">
+      <c r="AM1" s="30">
         <v>9</v>
       </c>
-      <c r="AN1" s="27"/>
+      <c r="AN1" s="30"/>
       <c r="AO1" s="28">
         <v>-9</v>
       </c>
       <c r="AP1" s="28"/>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="30">
         <v>20</v>
       </c>
-      <c r="AR1" s="27"/>
+      <c r="AR1" s="30"/>
       <c r="AS1" s="28">
         <v>-20</v>
       </c>
       <c r="AT1" s="28"/>
-      <c r="AU1" s="27">
+      <c r="AU1" s="30">
         <v>6</v>
       </c>
-      <c r="AV1" s="27"/>
+      <c r="AV1" s="30"/>
       <c r="AW1" s="28">
         <v>-6</v>
       </c>
       <c r="AX1" s="28"/>
-      <c r="AY1" s="27">
+      <c r="AY1" s="30">
         <v>3</v>
       </c>
-      <c r="AZ1" s="27"/>
+      <c r="AZ1" s="30"/>
       <c r="BA1" s="28">
         <v>-3</v>
       </c>
       <c r="BB1" s="28"/>
-      <c r="BC1" s="27">
+      <c r="BC1" s="30">
         <v>10</v>
       </c>
-      <c r="BD1" s="27"/>
+      <c r="BD1" s="30"/>
       <c r="BE1" s="28" t="s">
         <v>208</v>
       </c>
       <c r="BF1" s="28"/>
-      <c r="BG1" s="27">
+      <c r="BG1" s="30">
         <v>11</v>
       </c>
-      <c r="BH1" s="27"/>
+      <c r="BH1" s="30"/>
       <c r="BI1" s="28">
         <v>-11</v>
       </c>
@@ -7516,184 +7880,184 @@
       <c r="B2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AB2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AE2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AF2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AI2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AK2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AL2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AN2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AO2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AP2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="17" t="s">
+      <c r="AQ2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AR2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AS2" s="18" t="s">
+      <c r="AS2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="AT2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AU2" s="17" t="s">
+      <c r="AU2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AV2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="18" t="s">
+      <c r="AW2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AX2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AY2" s="17" t="s">
+      <c r="AY2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="AZ2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="18" t="s">
+      <c r="BA2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="18" t="s">
+      <c r="BB2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BC2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BD2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BE2" s="18" t="s">
+      <c r="BE2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BF2" s="18" t="s">
+      <c r="BF2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="BG2" s="17" t="s">
+      <c r="BG2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BH2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="18" t="s">
+      <c r="BI2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" s="18" t="s">
+      <c r="BJ2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7704,80 +8068,80 @@
       <c r="B3" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="21" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19" t="s">
+      <c r="R3" s="19"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19" t="s">
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="19" t="s">
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="21" t="s">
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="19" t="s">
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="19" t="s">
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="21"/>
-      <c r="BB3" s="21"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="21"/>
-      <c r="BF3" s="21"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -7786,80 +8150,80 @@
       <c r="B4" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="19" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="21" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="19" t="s">
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="21" t="s">
+      <c r="X4" s="18"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19" t="s">
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="21"/>
-      <c r="BB4" s="21"/>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="21"/>
-      <c r="BF4" s="21"/>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="21"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="19"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -7868,70 +8232,70 @@
       <c r="B5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="21"/>
-      <c r="BF5" s="21"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -7940,74 +8304,74 @@
       <c r="B6" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19" t="s">
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -8016,72 +8380,72 @@
       <c r="B7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="21" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19" t="s">
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8090,72 +8454,72 @@
       <c r="B8" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="21" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19" t="s">
+      <c r="N8" s="19"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="19"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="19"/>
-      <c r="BH8" s="19"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="19"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="19"/>
+      <c r="BJ8" s="19"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -8164,70 +8528,70 @@
       <c r="B9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21" t="s">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21"/>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -8236,158 +8600,158 @@
       <c r="B10" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="19" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="T10" s="19"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="21" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="19" t="s">
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="21" t="s">
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="21" t="s">
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="19"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="21"/>
-      <c r="BG10" s="19"/>
-      <c r="BH10" s="19"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+    </row>
+    <row r="11" spans="1:62" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="21" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19" t="s">
+      <c r="R11" s="33"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="21" t="s">
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="AH11" s="21" t="s">
+      <c r="AH11" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="21" t="s">
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="21" t="s">
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="19"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="21"/>
-      <c r="BG11" s="19"/>
-      <c r="BH11" s="19"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="33"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="32"/>
+      <c r="BH11" s="32"/>
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="33"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -8396,162 +8760,162 @@
       <c r="B12" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="21"/>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="19"/>
-      <c r="BI12" s="21"/>
-      <c r="BJ12" s="21"/>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="19"/>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="19"/>
+      <c r="BJ12" s="19"/>
+    </row>
+    <row r="13" spans="1:62" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="19" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19" t="s">
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="19" t="s">
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="21" t="s">
+      <c r="T13" s="32"/>
+      <c r="U13" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="V13" s="21" t="s">
+      <c r="V13" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="21" t="s">
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19" t="s">
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19" t="s">
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="19"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="21" t="s">
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="BG13" s="19"/>
-      <c r="BH13" s="19"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="33"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -8560,70 +8924,70 @@
       <c r="B14" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="19" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="21" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="19"/>
-      <c r="BD14" s="19"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="19"/>
-      <c r="BH14" s="19"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="19"/>
+      <c r="BF14" s="19"/>
+      <c r="BG14" s="18"/>
+      <c r="BH14" s="18"/>
+      <c r="BI14" s="19"/>
+      <c r="BJ14" s="19"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -8632,230 +8996,230 @@
       <c r="B15" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="21" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="19" t="s">
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="T15" s="19"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="19"/>
-      <c r="BD15" s="19"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="19"/>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="19"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="19"/>
+      <c r="BF15" s="19"/>
+      <c r="BG15" s="18"/>
+      <c r="BH15" s="18"/>
+      <c r="BI15" s="19"/>
+      <c r="BJ15" s="19"/>
+    </row>
+    <row r="16" spans="1:62" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="32">
         <v>15</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="21" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="V16" s="21"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="21" t="s">
+      <c r="V16" s="33"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="19" t="s">
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
-    </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="33"/>
+      <c r="BB16" s="33"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="33"/>
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="32"/>
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="33"/>
+    </row>
+    <row r="17" spans="1:62" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21" t="s">
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="33"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="32"/>
+      <c r="BA17" s="33"/>
+      <c r="BB17" s="33"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="33"/>
+      <c r="BG17" s="32"/>
+      <c r="BH17" s="32"/>
+      <c r="BI17" s="33"/>
+      <c r="BJ17" s="33"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -8864,336 +9228,1231 @@
       <c r="B18" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>17</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="21" t="s">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="21" t="s">
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="21"/>
-      <c r="BC18" s="19"/>
-      <c r="BD18" s="19"/>
-      <c r="BE18" s="21"/>
-      <c r="BF18" s="21"/>
-      <c r="BG18" s="19"/>
-      <c r="BH18" s="19"/>
-      <c r="BI18" s="21" t="s">
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="19"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="19"/>
+      <c r="BF18" s="19"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="BJ18" s="21"/>
-    </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="BJ18" s="19"/>
+    </row>
+    <row r="19" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="35">
         <v>-14</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="21" t="s">
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19" t="s">
+      <c r="R19" s="36"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="19" t="s">
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="19"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="20"/>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="19"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="20"/>
-      <c r="BG19" s="19"/>
-      <c r="BH19" s="19"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="20"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="35"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="35"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="35"/>
+      <c r="AZ19" s="35"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36"/>
+      <c r="BC19" s="35"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="36"/>
+      <c r="BG19" s="35"/>
+      <c r="BH19" s="35"/>
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="36"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C22" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C23" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C24" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C22" s="22" t="s">
+      <c r="E24" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C25" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C26" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="E26" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C27" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
+      <c r="F27" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C28" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="E28" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C29" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="F29" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C30" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C31" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C32" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C24" s="22" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C25" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C26" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C27" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C29" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C30" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="E98" s="38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C112" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C113" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E113" s="38" t="s">
         <v>259</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C31" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C32" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -9206,18 +10465,13 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F1AED6-9635-4933-A9CF-B31E02D9AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6731E-03CA-4C38-93C6-73C2BD8122C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="357">
   <si>
     <t>-6 -8</t>
   </si>
@@ -1312,24 +1313,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,6 +1337,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1713,110 +1714,110 @@
     <row r="1" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="26">
+      <c r="C1" s="37">
         <v>17</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="25">
+      <c r="D1" s="37"/>
+      <c r="E1" s="36">
         <v>-17</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="27">
+      <c r="F1" s="36"/>
+      <c r="G1" s="35">
         <v>19</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26">
+      <c r="H1" s="35"/>
+      <c r="I1" s="37">
         <v>-19</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37">
         <v>9</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="25">
+      <c r="L1" s="37"/>
+      <c r="M1" s="36">
         <v>-9</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="27">
+      <c r="N1" s="36"/>
+      <c r="O1" s="35">
         <v>7</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="26">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="37">
         <v>-7</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="27">
+      <c r="R1" s="37"/>
+      <c r="S1" s="35">
         <v>10</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="26">
+      <c r="T1" s="35"/>
+      <c r="U1" s="37">
         <v>-10</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26">
+      <c r="V1" s="37"/>
+      <c r="W1" s="37">
         <v>11</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="25">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="36">
         <v>-11</v>
       </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="26">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37">
         <v>14</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="25">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="36">
         <v>-14</v>
       </c>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="27">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="35">
         <v>15</v>
       </c>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="26">
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="37">
         <v>-15</v>
       </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37">
         <v>4</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="25">
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="36">
         <v>-4</v>
       </c>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="26">
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="37">
         <v>18</v>
       </c>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="25">
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="36">
         <v>-18</v>
       </c>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="26">
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37">
         <v>2</v>
       </c>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="25">
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="36">
         <v>-2</v>
       </c>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="27">
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="35">
         <v>8</v>
       </c>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="26">
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="37">
         <v>-8</v>
       </c>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="27">
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="35">
         <v>13</v>
       </c>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="25">
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="36">
         <v>-13</v>
       </c>
-      <c r="BB1" s="25"/>
+      <c r="BB1" s="36"/>
       <c r="BD1" s="9" t="s">
         <v>108</v>
       </c>
@@ -7351,14 +7352,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7371,12 +7370,14 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7530,32 +7531,32 @@
     <row r="1" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="27">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="25">
+      <c r="C1" s="35">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36">
         <v>-1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="27">
+      <c r="F1" s="36"/>
+      <c r="G1" s="35">
         <v>2</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="25">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36">
         <v>-2</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="27">
+      <c r="J1" s="36"/>
+      <c r="K1" s="35">
         <v>3</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="25">
+      <c r="L1" s="35"/>
+      <c r="M1" s="36">
         <v>-3</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7727,11 +7728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="21" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="21" topLeftCell="F99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22:E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7752,126 +7753,126 @@
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="30">
-        <v>1</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="28">
+      <c r="C1" s="39">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="38">
         <v>-1</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="30">
+      <c r="F1" s="38"/>
+      <c r="G1" s="39">
         <v>5</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="28">
+      <c r="H1" s="39"/>
+      <c r="I1" s="38">
         <v>-5</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="30">
+      <c r="J1" s="38"/>
+      <c r="K1" s="39">
         <v>4</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="28">
+      <c r="L1" s="39"/>
+      <c r="M1" s="38">
         <v>-4</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="30">
+      <c r="N1" s="38"/>
+      <c r="O1" s="39">
         <v>12</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="28">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="38">
         <v>-12</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="30">
+      <c r="R1" s="38"/>
+      <c r="S1" s="39">
         <v>15</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="28">
+      <c r="T1" s="39"/>
+      <c r="U1" s="38">
         <v>-15</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="30">
+      <c r="V1" s="38"/>
+      <c r="W1" s="39">
         <v>18</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="28">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="38">
         <v>-18</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="30">
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="39">
         <v>16</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="28">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="38">
         <v>-16</v>
       </c>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="30">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="39">
         <v>14</v>
       </c>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="28">
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="38">
         <v>-14</v>
       </c>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="30">
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="39">
         <v>8</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="28">
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="38">
         <v>-8</v>
       </c>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="30">
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="39">
         <v>9</v>
       </c>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="28">
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="38">
         <v>-9</v>
       </c>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="30">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="39">
         <v>20</v>
       </c>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="28">
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="38">
         <v>-20</v>
       </c>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="30">
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39">
         <v>6</v>
       </c>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="28">
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="38">
         <v>-6</v>
       </c>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="30">
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="39">
         <v>3</v>
       </c>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="28">
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="38">
         <v>-3</v>
       </c>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="30">
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="39">
         <v>10</v>
       </c>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="28" t="s">
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="30">
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="39">
         <v>11</v>
       </c>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="28">
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="38">
         <v>-11</v>
       </c>
-      <c r="BJ1" s="28"/>
+      <c r="BJ1" s="38"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8673,85 +8674,85 @@
       <c r="BI10" s="19"/>
       <c r="BJ10" s="19"/>
     </row>
-    <row r="11" spans="1:62" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:62" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32" t="s">
+      <c r="R11" s="27"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="33" t="s">
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="AH11" s="33" t="s">
+      <c r="AH11" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="33" t="s">
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="33" t="s">
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="33"/>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="32"/>
-      <c r="BH11" s="32"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="33"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="26"/>
+      <c r="BE11" s="27"/>
+      <c r="BF11" s="27"/>
+      <c r="BG11" s="26"/>
+      <c r="BH11" s="26"/>
+      <c r="BI11" s="27"/>
+      <c r="BJ11" s="27"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -8825,97 +8826,97 @@
       <c r="BI12" s="19"/>
       <c r="BJ12" s="19"/>
     </row>
-    <row r="13" spans="1:62" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:62" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33" t="s">
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32" t="s">
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="32" t="s">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="T13" s="32"/>
-      <c r="U13" s="33" t="s">
+      <c r="T13" s="26"/>
+      <c r="U13" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="V13" s="33" t="s">
+      <c r="V13" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="33" t="s">
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32" t="s">
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="32"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="32" t="s">
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="32"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="33"/>
-      <c r="BF13" s="33" t="s">
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="27"/>
+      <c r="BF13" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="BG13" s="32"/>
-      <c r="BH13" s="32"/>
-      <c r="BI13" s="33"/>
-      <c r="BJ13" s="33"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="26"/>
+      <c r="BI13" s="27"/>
+      <c r="BJ13" s="27"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -9061,165 +9062,165 @@
       <c r="BI15" s="19"/>
       <c r="BJ15" s="19"/>
     </row>
-    <row r="16" spans="1:62" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:62" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="26">
         <v>15</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="33" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="V16" s="33"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="33" t="s">
+      <c r="V16" s="27"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="32" t="s">
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="32"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="32"/>
-      <c r="AZ16" s="32"/>
-      <c r="BA16" s="33"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="32"/>
-      <c r="BD16" s="32"/>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="32"/>
-      <c r="BH16" s="32"/>
-      <c r="BI16" s="33"/>
-      <c r="BJ16" s="33"/>
-    </row>
-    <row r="17" spans="1:62" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="26"/>
+      <c r="BD16" s="26"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="26"/>
+      <c r="BH16" s="26"/>
+      <c r="BI16" s="27"/>
+      <c r="BJ16" s="27"/>
+    </row>
+    <row r="17" spans="1:62" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="M17" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="33" t="s">
+      <c r="N17" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33" t="s">
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="32"/>
-      <c r="AV17" s="32"/>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="32"/>
-      <c r="AZ17" s="32"/>
-      <c r="BA17" s="33"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="32"/>
-      <c r="BD17" s="32"/>
-      <c r="BE17" s="33"/>
-      <c r="BF17" s="33"/>
-      <c r="BG17" s="32"/>
-      <c r="BH17" s="32"/>
-      <c r="BI17" s="33"/>
-      <c r="BJ17" s="33"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="27"/>
+      <c r="AX17" s="27"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="27"/>
+      <c r="BB17" s="27"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="27"/>
+      <c r="BF17" s="27"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="27"/>
+      <c r="BJ17" s="27"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -9301,91 +9302,91 @@
       </c>
       <c r="BJ18" s="19"/>
     </row>
-    <row r="19" spans="1:62" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="29">
         <v>-14</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="R19" s="36"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35" t="s">
+      <c r="R19" s="30"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="35" t="s">
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="35"/>
-      <c r="AZ19" s="35"/>
-      <c r="BA19" s="36"/>
-      <c r="BB19" s="36"/>
-      <c r="BC19" s="35"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="35"/>
-      <c r="BH19" s="35"/>
-      <c r="BI19" s="36"/>
-      <c r="BJ19" s="36"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="30"/>
+      <c r="AT19" s="30"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="30"/>
+      <c r="AX19" s="30"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="30"/>
+      <c r="BC19" s="29"/>
+      <c r="BD19" s="29"/>
+      <c r="BE19" s="30"/>
+      <c r="BF19" s="30"/>
+      <c r="BG19" s="29"/>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="30"/>
+      <c r="BJ19" s="30"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
@@ -9802,13 +9803,13 @@
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="32" t="s">
         <v>280</v>
       </c>
     </row>
@@ -9967,13 +9968,13 @@
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="32" t="s">
         <v>303</v>
       </c>
     </row>
@@ -10022,13 +10023,13 @@
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="32" t="s">
         <v>312</v>
       </c>
     </row>
@@ -10110,24 +10111,24 @@
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="E84" s="38" t="s">
+      <c r="E84" s="32" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="E85" s="38" t="s">
+      <c r="E85" s="32" t="s">
         <v>327</v>
       </c>
     </row>
@@ -10231,24 +10232,24 @@
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95" s="38" t="s">
+      <c r="C95" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D95" s="38" t="s">
+      <c r="D95" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E95" s="38" t="s">
+      <c r="E95" s="32" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96" s="38" t="s">
+      <c r="C96" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="38" t="s">
+      <c r="D96" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="E96" s="38" t="s">
+      <c r="E96" s="32" t="s">
         <v>342</v>
       </c>
     </row>
@@ -10264,13 +10265,13 @@
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="38" t="s">
+      <c r="C98" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D98" s="38" t="s">
+      <c r="D98" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="38" t="s">
+      <c r="E98" s="32" t="s">
         <v>340</v>
       </c>
     </row>
@@ -10418,29 +10419,48 @@
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C112" s="38" t="s">
+      <c r="C112" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D112" s="38" t="s">
+      <c r="D112" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="E112" s="38" t="s">
+      <c r="E112" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C113" s="38" t="s">
+      <c r="C113" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D113" s="38" t="s">
+      <c r="D113" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="E113" s="38" t="s">
+      <c r="E113" s="32" t="s">
         <v>259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
@@ -10453,27 +10473,5285 @@
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFC3558-6FB3-4032-B099-A0E94BD60667}">
+  <dimension ref="B1:AS93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AW9" sqref="AW9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="1"/>
+    <col min="2" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.28515625" style="1"/>
+    <col min="6" max="6" width="4.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="4.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="F1" s="11">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H1" s="11">
+        <v>2</v>
+      </c>
+      <c r="I1" s="11">
+        <v>-2</v>
+      </c>
+      <c r="J1" s="11">
+        <v>3</v>
+      </c>
+      <c r="K1" s="11">
+        <v>-3</v>
+      </c>
+      <c r="L1" s="11">
+        <v>4</v>
+      </c>
+      <c r="M1" s="11">
+        <v>-4</v>
+      </c>
+      <c r="N1" s="11">
+        <v>5</v>
+      </c>
+      <c r="O1" s="11">
+        <v>-5</v>
+      </c>
+      <c r="P1" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="11">
+        <v>-6</v>
+      </c>
+      <c r="R1" s="11">
+        <v>7</v>
+      </c>
+      <c r="S1" s="11">
+        <v>-7</v>
+      </c>
+      <c r="T1" s="11">
+        <v>8</v>
+      </c>
+      <c r="U1" s="11">
+        <v>-8</v>
+      </c>
+      <c r="V1" s="11">
+        <v>9</v>
+      </c>
+      <c r="W1" s="11">
+        <v>-9</v>
+      </c>
+      <c r="X1" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>-10</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>-11</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>-12</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>-13</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>-14</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>15</v>
+      </c>
+      <c r="AI1" s="11">
+        <v>-15</v>
+      </c>
+      <c r="AJ1" s="11">
+        <v>16</v>
+      </c>
+      <c r="AK1" s="11">
+        <v>-16</v>
+      </c>
+      <c r="AL1" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="11">
+        <v>-17</v>
+      </c>
+      <c r="AN1" s="11">
+        <v>18</v>
+      </c>
+      <c r="AO1" s="11">
+        <v>-18</v>
+      </c>
+      <c r="AP1" s="11">
+        <v>19</v>
+      </c>
+      <c r="AQ1" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AR1" s="11">
+        <v>20</v>
+      </c>
+      <c r="AS1" s="11">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+    </row>
+    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+    </row>
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+    </row>
+    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+    </row>
+    <row r="16" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="11"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="11"/>
+    </row>
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+    </row>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+    </row>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+    </row>
+    <row r="34" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+    </row>
+    <row r="35" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B36" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+    </row>
+    <row r="37" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
+    </row>
+    <row r="38" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B38" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+    </row>
+    <row r="39" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+    </row>
+    <row r="40" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="11"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="11"/>
+    </row>
+    <row r="41" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+    </row>
+    <row r="42" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="11"/>
+      <c r="AS42" s="11"/>
+    </row>
+    <row r="43" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+    </row>
+    <row r="44" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
+    </row>
+    <row r="45" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="11"/>
+      <c r="AS45" s="11"/>
+    </row>
+    <row r="46" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="11"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="11"/>
+    </row>
+    <row r="47" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="11"/>
+    </row>
+    <row r="48" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B48" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+    </row>
+    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B49" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="11"/>
+    </row>
+    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+    </row>
+    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B51" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+    </row>
+    <row r="52" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="11"/>
+    </row>
+    <row r="53" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B53" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="11"/>
+    </row>
+    <row r="54" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="11"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="11"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="11"/>
+    </row>
+    <row r="55" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B55" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="11"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="11"/>
+    </row>
+    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="11"/>
+    </row>
+    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B57" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="11"/>
+      <c r="AR57" s="11"/>
+      <c r="AS57" s="11"/>
+    </row>
+    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B58" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+    </row>
+    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="11"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="11"/>
+      <c r="AR59" s="11"/>
+      <c r="AS59" s="11"/>
+    </row>
+    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B60" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
+      <c r="AR60" s="11"/>
+      <c r="AS60" s="11"/>
+    </row>
+    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
+      <c r="AL61" s="11"/>
+      <c r="AM61" s="11"/>
+      <c r="AN61" s="11"/>
+      <c r="AO61" s="11"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="11"/>
+      <c r="AR61" s="11"/>
+      <c r="AS61" s="11"/>
+    </row>
+    <row r="62" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
+      <c r="AL62" s="11"/>
+      <c r="AM62" s="11"/>
+      <c r="AN62" s="11"/>
+      <c r="AO62" s="11"/>
+      <c r="AP62" s="11"/>
+      <c r="AQ62" s="11"/>
+      <c r="AR62" s="11"/>
+      <c r="AS62" s="11"/>
+    </row>
+    <row r="63" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B63" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
+      <c r="AN63" s="11"/>
+      <c r="AO63" s="11"/>
+      <c r="AP63" s="11"/>
+      <c r="AQ63" s="11"/>
+      <c r="AR63" s="11"/>
+      <c r="AS63" s="11"/>
+    </row>
+    <row r="64" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B64" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="11"/>
+      <c r="AR64" s="11"/>
+      <c r="AS64" s="11"/>
+    </row>
+    <row r="65" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B65" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="11"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="11"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="11"/>
+      <c r="AP65" s="11"/>
+      <c r="AQ65" s="11"/>
+      <c r="AR65" s="11"/>
+      <c r="AS65" s="11"/>
+    </row>
+    <row r="66" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B66" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="11"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="11"/>
+      <c r="AP66" s="11"/>
+      <c r="AQ66" s="11"/>
+      <c r="AR66" s="11"/>
+      <c r="AS66" s="11"/>
+    </row>
+    <row r="67" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="11"/>
+      <c r="AL67" s="11"/>
+      <c r="AM67" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN67" s="11"/>
+      <c r="AO67" s="11"/>
+      <c r="AP67" s="11"/>
+      <c r="AQ67" s="11"/>
+      <c r="AR67" s="11"/>
+      <c r="AS67" s="11"/>
+    </row>
+    <row r="68" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11"/>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="11"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN68" s="11"/>
+      <c r="AO68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP68" s="11"/>
+      <c r="AQ68" s="11"/>
+      <c r="AR68" s="11"/>
+      <c r="AS68" s="11"/>
+    </row>
+    <row r="69" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B69" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
+      <c r="AB69" s="11"/>
+      <c r="AC69" s="11"/>
+      <c r="AD69" s="11"/>
+      <c r="AE69" s="11"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
+      <c r="AI69" s="11"/>
+      <c r="AJ69" s="11"/>
+      <c r="AK69" s="11"/>
+      <c r="AL69" s="11"/>
+      <c r="AM69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN69" s="11"/>
+      <c r="AO69" s="11"/>
+      <c r="AP69" s="11"/>
+      <c r="AQ69" s="11"/>
+      <c r="AR69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS69" s="11"/>
+    </row>
+    <row r="70" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B70" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="11"/>
+      <c r="AB70" s="11"/>
+      <c r="AC70" s="11"/>
+      <c r="AD70" s="11"/>
+      <c r="AE70" s="11"/>
+      <c r="AF70" s="11"/>
+      <c r="AG70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="11"/>
+      <c r="AI70" s="11"/>
+      <c r="AJ70" s="11"/>
+      <c r="AK70" s="11"/>
+      <c r="AL70" s="11"/>
+      <c r="AM70" s="11"/>
+      <c r="AN70" s="11"/>
+      <c r="AO70" s="11"/>
+      <c r="AP70" s="11"/>
+      <c r="AQ70" s="11"/>
+      <c r="AR70" s="11"/>
+      <c r="AS70" s="11"/>
+    </row>
+    <row r="71" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B71" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11"/>
+      <c r="AL71" s="11"/>
+      <c r="AM71" s="11"/>
+      <c r="AN71" s="11"/>
+      <c r="AO71" s="11"/>
+      <c r="AP71" s="11"/>
+      <c r="AQ71" s="11"/>
+      <c r="AR71" s="11"/>
+      <c r="AS71" s="11"/>
+    </row>
+    <row r="72" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B72" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
+      <c r="AC72" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="11"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="11"/>
+      <c r="AJ72" s="11"/>
+      <c r="AK72" s="11"/>
+      <c r="AL72" s="11"/>
+      <c r="AM72" s="11"/>
+      <c r="AN72" s="11"/>
+      <c r="AO72" s="11"/>
+      <c r="AP72" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ72" s="11"/>
+      <c r="AR72" s="11"/>
+      <c r="AS72" s="11"/>
+    </row>
+    <row r="73" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B73" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="11"/>
+      <c r="AL73" s="11"/>
+      <c r="AM73" s="11"/>
+      <c r="AN73" s="11"/>
+      <c r="AO73" s="11"/>
+      <c r="AP73" s="11"/>
+      <c r="AQ73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR73" s="11"/>
+      <c r="AS73" s="11"/>
+    </row>
+    <row r="74" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="11"/>
+      <c r="AO74" s="11"/>
+      <c r="AP74" s="11"/>
+      <c r="AQ74" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR74" s="11"/>
+      <c r="AS74" s="11"/>
+    </row>
+    <row r="75" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B75" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="11"/>
+      <c r="AC75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="11"/>
+      <c r="AF75" s="11"/>
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="11"/>
+      <c r="AJ75" s="11"/>
+      <c r="AK75" s="11"/>
+      <c r="AL75" s="11"/>
+      <c r="AM75" s="11"/>
+      <c r="AN75" s="11"/>
+      <c r="AO75" s="11"/>
+      <c r="AP75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR75" s="11"/>
+      <c r="AS75" s="11"/>
+    </row>
+    <row r="76" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B76" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AB76" s="11"/>
+      <c r="AC76" s="11"/>
+      <c r="AD76" s="11"/>
+      <c r="AE76" s="11"/>
+      <c r="AF76" s="11"/>
+      <c r="AG76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="11"/>
+      <c r="AI76" s="11"/>
+      <c r="AJ76" s="11"/>
+      <c r="AK76" s="11"/>
+      <c r="AL76" s="11"/>
+      <c r="AM76" s="11"/>
+      <c r="AN76" s="11"/>
+      <c r="AO76" s="11"/>
+      <c r="AP76" s="11"/>
+      <c r="AQ76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR76" s="11"/>
+      <c r="AS76" s="11"/>
+    </row>
+    <row r="77" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11"/>
+      <c r="AC77" s="11"/>
+      <c r="AD77" s="11"/>
+      <c r="AE77" s="11"/>
+      <c r="AF77" s="11"/>
+      <c r="AG77" s="11"/>
+      <c r="AH77" s="11"/>
+      <c r="AI77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ77" s="11"/>
+      <c r="AK77" s="11"/>
+      <c r="AL77" s="11"/>
+      <c r="AM77" s="11"/>
+      <c r="AN77" s="11"/>
+      <c r="AO77" s="11"/>
+      <c r="AP77" s="11"/>
+      <c r="AQ77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR77" s="11"/>
+      <c r="AS77" s="11"/>
+    </row>
+    <row r="78" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B78" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="11"/>
+      <c r="AC78" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="11"/>
+      <c r="AE78" s="11"/>
+      <c r="AF78" s="11"/>
+      <c r="AG78" s="11"/>
+      <c r="AH78" s="11"/>
+      <c r="AI78" s="11"/>
+      <c r="AJ78" s="11"/>
+      <c r="AK78" s="11"/>
+      <c r="AL78" s="11"/>
+      <c r="AM78" s="11"/>
+      <c r="AN78" s="11"/>
+      <c r="AO78" s="11"/>
+      <c r="AP78" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ78" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR78" s="11"/>
+      <c r="AS78" s="11"/>
+    </row>
+    <row r="79" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B79" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="11"/>
+      <c r="AC79" s="11"/>
+      <c r="AD79" s="11"/>
+      <c r="AE79" s="11"/>
+      <c r="AF79" s="11"/>
+      <c r="AG79" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="11"/>
+      <c r="AJ79" s="11"/>
+      <c r="AK79" s="11"/>
+      <c r="AL79" s="11"/>
+      <c r="AM79" s="11"/>
+      <c r="AN79" s="11"/>
+      <c r="AO79" s="11"/>
+      <c r="AP79" s="11"/>
+      <c r="AQ79" s="11"/>
+      <c r="AR79" s="11"/>
+      <c r="AS79" s="11"/>
+    </row>
+    <row r="80" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B80" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11"/>
+      <c r="AD80" s="11"/>
+      <c r="AE80" s="11"/>
+      <c r="AF80" s="11"/>
+      <c r="AG80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
+      <c r="AJ80" s="11"/>
+      <c r="AK80" s="11"/>
+      <c r="AL80" s="11"/>
+      <c r="AM80" s="11"/>
+      <c r="AN80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO80" s="11"/>
+      <c r="AP80" s="11"/>
+      <c r="AQ80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR80" s="11"/>
+      <c r="AS80" s="11"/>
+    </row>
+    <row r="81" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B81" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+      <c r="AB81" s="11"/>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="11"/>
+      <c r="AE81" s="11"/>
+      <c r="AF81" s="11"/>
+      <c r="AG81" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="11"/>
+      <c r="AJ81" s="11"/>
+      <c r="AK81" s="11"/>
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
+      <c r="AN81" s="11"/>
+      <c r="AO81" s="11"/>
+      <c r="AP81" s="11"/>
+      <c r="AQ81" s="11"/>
+      <c r="AR81" s="11"/>
+      <c r="AS81" s="11"/>
+    </row>
+    <row r="82" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B82" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+      <c r="AA82" s="11"/>
+      <c r="AB82" s="11"/>
+      <c r="AC82" s="11"/>
+      <c r="AD82" s="11"/>
+      <c r="AE82" s="11"/>
+      <c r="AF82" s="11"/>
+      <c r="AG82" s="11"/>
+      <c r="AH82" s="11"/>
+      <c r="AI82" s="11"/>
+      <c r="AJ82" s="11"/>
+      <c r="AK82" s="11"/>
+      <c r="AL82" s="11"/>
+      <c r="AM82" s="11"/>
+      <c r="AN82" s="11"/>
+      <c r="AO82" s="11"/>
+      <c r="AP82" s="11"/>
+      <c r="AQ82" s="11"/>
+      <c r="AR82" s="11"/>
+      <c r="AS82" s="11"/>
+    </row>
+    <row r="83" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B83" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
+      <c r="AA83" s="11"/>
+      <c r="AB83" s="11"/>
+      <c r="AC83" s="11"/>
+      <c r="AD83" s="11"/>
+      <c r="AE83" s="11"/>
+      <c r="AF83" s="11"/>
+      <c r="AG83" s="11"/>
+      <c r="AH83" s="11"/>
+      <c r="AI83" s="11"/>
+      <c r="AJ83" s="11"/>
+      <c r="AK83" s="11"/>
+      <c r="AL83" s="11"/>
+      <c r="AM83" s="11"/>
+      <c r="AN83" s="11"/>
+      <c r="AO83" s="11"/>
+      <c r="AP83" s="11"/>
+      <c r="AQ83" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR83" s="11"/>
+      <c r="AS83" s="11"/>
+    </row>
+    <row r="84" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B84" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="11"/>
+      <c r="AB84" s="11"/>
+      <c r="AC84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD84" s="11"/>
+      <c r="AE84" s="11"/>
+      <c r="AF84" s="11"/>
+      <c r="AG84" s="11"/>
+      <c r="AH84" s="11"/>
+      <c r="AI84" s="11"/>
+      <c r="AJ84" s="11"/>
+      <c r="AK84" s="11"/>
+      <c r="AL84" s="11"/>
+      <c r="AM84" s="11"/>
+      <c r="AN84" s="11"/>
+      <c r="AO84" s="11"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="11"/>
+      <c r="AR84" s="11"/>
+      <c r="AS84" s="11"/>
+    </row>
+    <row r="85" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B85" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
+      <c r="AA85" s="11"/>
+      <c r="AB85" s="11"/>
+      <c r="AC85" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="11"/>
+      <c r="AE85" s="11"/>
+      <c r="AF85" s="11"/>
+      <c r="AG85" s="11"/>
+      <c r="AH85" s="11"/>
+      <c r="AI85" s="11"/>
+      <c r="AJ85" s="11"/>
+      <c r="AK85" s="11"/>
+      <c r="AL85" s="11"/>
+      <c r="AM85" s="11"/>
+      <c r="AN85" s="11"/>
+      <c r="AO85" s="11"/>
+      <c r="AP85" s="11"/>
+      <c r="AQ85" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR85" s="11"/>
+      <c r="AS85" s="11"/>
+    </row>
+    <row r="86" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B86" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="11"/>
+      <c r="AB86" s="11"/>
+      <c r="AC86" s="11"/>
+      <c r="AD86" s="11"/>
+      <c r="AE86" s="11"/>
+      <c r="AF86" s="11"/>
+      <c r="AG86" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH86" s="11"/>
+      <c r="AI86" s="11"/>
+      <c r="AJ86" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK86" s="11"/>
+      <c r="AL86" s="11"/>
+      <c r="AM86" s="11"/>
+      <c r="AN86" s="11"/>
+      <c r="AO86" s="11"/>
+      <c r="AP86" s="11"/>
+      <c r="AQ86" s="11"/>
+      <c r="AR86" s="11"/>
+      <c r="AS86" s="11"/>
+    </row>
+    <row r="87" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B87" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11"/>
+      <c r="AB87" s="11"/>
+      <c r="AC87" s="11"/>
+      <c r="AD87" s="11"/>
+      <c r="AE87" s="11"/>
+      <c r="AF87" s="11"/>
+      <c r="AG87" s="11"/>
+      <c r="AH87" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI87" s="11"/>
+      <c r="AJ87" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK87" s="11"/>
+      <c r="AL87" s="11"/>
+      <c r="AM87" s="11"/>
+      <c r="AN87" s="11"/>
+      <c r="AO87" s="11"/>
+      <c r="AP87" s="11"/>
+      <c r="AQ87" s="11"/>
+      <c r="AR87" s="11"/>
+      <c r="AS87" s="11"/>
+    </row>
+    <row r="88" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B88" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
+      <c r="AA88" s="11"/>
+      <c r="AB88" s="11"/>
+      <c r="AC88" s="11"/>
+      <c r="AD88" s="11"/>
+      <c r="AE88" s="11"/>
+      <c r="AF88" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG88" s="11"/>
+      <c r="AH88" s="11"/>
+      <c r="AI88" s="11"/>
+      <c r="AJ88" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK88" s="11"/>
+      <c r="AL88" s="11"/>
+      <c r="AM88" s="11"/>
+      <c r="AN88" s="11"/>
+      <c r="AO88" s="11"/>
+      <c r="AP88" s="11"/>
+      <c r="AQ88" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR88" s="11"/>
+      <c r="AS88" s="11"/>
+    </row>
+    <row r="89" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B89" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="11"/>
+      <c r="AA89" s="11"/>
+      <c r="AB89" s="11"/>
+      <c r="AC89" s="11"/>
+      <c r="AD89" s="11"/>
+      <c r="AE89" s="11"/>
+      <c r="AF89" s="11"/>
+      <c r="AG89" s="11"/>
+      <c r="AH89" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI89" s="11"/>
+      <c r="AJ89" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK89" s="11"/>
+      <c r="AL89" s="11"/>
+      <c r="AM89" s="11"/>
+      <c r="AN89" s="11"/>
+      <c r="AO89" s="11"/>
+      <c r="AP89" s="11"/>
+      <c r="AQ89" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR89" s="11"/>
+      <c r="AS89" s="11"/>
+    </row>
+    <row r="90" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B90" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
+      <c r="AA90" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="11"/>
+      <c r="AC90" s="11"/>
+      <c r="AD90" s="11"/>
+      <c r="AE90" s="11"/>
+      <c r="AF90" s="11"/>
+      <c r="AG90" s="11"/>
+      <c r="AH90" s="11"/>
+      <c r="AI90" s="11"/>
+      <c r="AJ90" s="11"/>
+      <c r="AK90" s="11"/>
+      <c r="AL90" s="11"/>
+      <c r="AM90" s="11"/>
+      <c r="AN90" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO90" s="11"/>
+      <c r="AP90" s="11"/>
+      <c r="AQ90" s="11"/>
+      <c r="AR90" s="11"/>
+      <c r="AS90" s="11"/>
+    </row>
+    <row r="91" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B91" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="11"/>
+      <c r="AB91" s="11"/>
+      <c r="AC91" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="11"/>
+      <c r="AE91" s="11"/>
+      <c r="AF91" s="11"/>
+      <c r="AG91" s="11"/>
+      <c r="AH91" s="11"/>
+      <c r="AI91" s="11"/>
+      <c r="AJ91" s="11"/>
+      <c r="AK91" s="11"/>
+      <c r="AL91" s="11"/>
+      <c r="AM91" s="11"/>
+      <c r="AN91" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO91" s="11"/>
+      <c r="AP91" s="11"/>
+      <c r="AQ91" s="11"/>
+      <c r="AR91" s="11"/>
+      <c r="AS91" s="11"/>
+    </row>
+    <row r="92" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B92" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+      <c r="AA92" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="11"/>
+      <c r="AC92" s="11"/>
+      <c r="AD92" s="11"/>
+      <c r="AE92" s="11"/>
+      <c r="AF92" s="11"/>
+      <c r="AG92" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH92" s="11"/>
+      <c r="AI92" s="11"/>
+      <c r="AJ92" s="11"/>
+      <c r="AK92" s="11"/>
+      <c r="AL92" s="11"/>
+      <c r="AM92" s="11"/>
+      <c r="AN92" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO92" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP92" s="11"/>
+      <c r="AQ92" s="11"/>
+      <c r="AR92" s="11"/>
+      <c r="AS92" s="11"/>
+    </row>
+    <row r="93" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B93" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+      <c r="AA93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="11"/>
+      <c r="AC93" s="11"/>
+      <c r="AD93" s="11"/>
+      <c r="AE93" s="11"/>
+      <c r="AF93" s="11"/>
+      <c r="AG93" s="11"/>
+      <c r="AH93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI93" s="11"/>
+      <c r="AJ93" s="11"/>
+      <c r="AK93" s="11"/>
+      <c r="AL93" s="11"/>
+      <c r="AM93" s="11"/>
+      <c r="AN93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP93" s="11"/>
+      <c r="AQ93" s="11"/>
+      <c r="AR93" s="11"/>
+      <c r="AS93" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6731E-03CA-4C38-93C6-73C2BD8122C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EBAEAF-0088-4D06-8D72-04EB52A62C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="359">
   <si>
     <t>-6 -8</t>
   </si>
@@ -1090,13 +1090,19 @@
   </si>
   <si>
     <t>-17, 10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1187,6 +1193,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1214,7 +1251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1237,11 +1274,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1339,22 +1402,55 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,110 +1810,110 @@
     <row r="1" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="37">
+      <c r="C1" s="36">
         <v>17</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="36">
+      <c r="D1" s="36"/>
+      <c r="E1" s="35">
         <v>-17</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35">
+      <c r="F1" s="35"/>
+      <c r="G1" s="37">
         <v>19</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="37">
+      <c r="H1" s="37"/>
+      <c r="I1" s="36">
         <v>-19</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36">
         <v>9</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="36">
+      <c r="L1" s="36"/>
+      <c r="M1" s="35">
         <v>-9</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35">
+      <c r="N1" s="35"/>
+      <c r="O1" s="37">
         <v>7</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="37">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36">
         <v>-7</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="35">
+      <c r="R1" s="36"/>
+      <c r="S1" s="37">
         <v>10</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="37">
+      <c r="T1" s="37"/>
+      <c r="U1" s="36">
         <v>-10</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37">
+      <c r="V1" s="36"/>
+      <c r="W1" s="36">
         <v>11</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="36">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35">
         <v>-11</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="37">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="36">
         <v>14</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="36">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="35">
         <v>-14</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="35">
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="37">
         <v>15</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="37">
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="36">
         <v>-15</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37">
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36">
         <v>4</v>
       </c>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="36">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="35">
         <v>-4</v>
       </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="37">
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="36">
         <v>18</v>
       </c>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="36">
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="35">
         <v>-18</v>
       </c>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="37">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="36">
         <v>2</v>
       </c>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="36">
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="35">
         <v>-2</v>
       </c>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="35">
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="37">
         <v>8</v>
       </c>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="37">
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="36">
         <v>-8</v>
       </c>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="35">
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="37">
         <v>13</v>
       </c>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="36">
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="35">
         <v>-13</v>
       </c>
-      <c r="BB1" s="36"/>
+      <c r="BB1" s="35"/>
       <c r="BD1" s="9" t="s">
         <v>108</v>
       </c>
@@ -7352,12 +7448,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7370,14 +7468,12 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7515,51 +7611,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="6" style="6" customWidth="1"/>
-    <col min="3" max="16" width="3.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="30" width="3.85546875" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="35">
-        <v>1</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36">
+      <c r="C1" s="37">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="35">
         <v>-1</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35">
+      <c r="F1" s="35"/>
+      <c r="G1" s="37">
         <v>2</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36">
+      <c r="H1" s="37"/>
+      <c r="I1" s="35">
         <v>-2</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35">
+      <c r="J1" s="35"/>
+      <c r="K1" s="37">
         <v>3</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36">
+      <c r="L1" s="37"/>
+      <c r="M1" s="10">
         <v>-3</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="10"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+    </row>
+    <row r="2" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="7" t="s">
@@ -7598,14 +7707,24 @@
       <c r="N2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+    </row>
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>183</v>
       </c>
@@ -7630,8 +7749,22 @@
       <c r="N3" s="11"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>185</v>
       </c>
@@ -7656,8 +7789,22 @@
       <c r="N4" s="11"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>179</v>
       </c>
@@ -7682,8 +7829,22 @@
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="14"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>181</v>
       </c>
@@ -7708,19 +7869,476 @@
       <c r="N6" s="11"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="37">
+        <v>2</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="35">
+        <v>-2</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="37">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="41">
+        <v>-3</v>
+      </c>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43">
+        <v>4</v>
+      </c>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="41">
+        <v>-4</v>
+      </c>
+      <c r="R8" s="42"/>
+      <c r="S8" s="43">
+        <v>5</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="41">
+        <v>-5</v>
+      </c>
+      <c r="V8" s="42"/>
+      <c r="W8" s="43">
+        <v>6</v>
+      </c>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="41">
+        <v>-6</v>
+      </c>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="43">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="41">
+        <v>-7</v>
+      </c>
+      <c r="AD8" s="42"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="46"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="49"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="O1:P1"/>
+  <mergeCells count="19">
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A3:B6 A13:B16" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7753,122 +8371,122 @@
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="39">
-        <v>1</v>
-      </c>
-      <c r="D1" s="39"/>
+      <c r="C1" s="40">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40"/>
       <c r="E1" s="38">
         <v>-1</v>
       </c>
       <c r="F1" s="38"/>
-      <c r="G1" s="39">
+      <c r="G1" s="40">
         <v>5</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="38">
         <v>-5</v>
       </c>
       <c r="J1" s="38"/>
-      <c r="K1" s="39">
+      <c r="K1" s="40">
         <v>4</v>
       </c>
-      <c r="L1" s="39"/>
+      <c r="L1" s="40"/>
       <c r="M1" s="38">
         <v>-4</v>
       </c>
       <c r="N1" s="38"/>
-      <c r="O1" s="39">
+      <c r="O1" s="40">
         <v>12</v>
       </c>
-      <c r="P1" s="39"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="38">
         <v>-12</v>
       </c>
       <c r="R1" s="38"/>
-      <c r="S1" s="39">
+      <c r="S1" s="40">
         <v>15</v>
       </c>
-      <c r="T1" s="39"/>
+      <c r="T1" s="40"/>
       <c r="U1" s="38">
         <v>-15</v>
       </c>
       <c r="V1" s="38"/>
-      <c r="W1" s="39">
+      <c r="W1" s="40">
         <v>18</v>
       </c>
-      <c r="X1" s="39"/>
+      <c r="X1" s="40"/>
       <c r="Y1" s="38">
         <v>-18</v>
       </c>
       <c r="Z1" s="38"/>
-      <c r="AA1" s="39">
+      <c r="AA1" s="40">
         <v>16</v>
       </c>
-      <c r="AB1" s="39"/>
+      <c r="AB1" s="40"/>
       <c r="AC1" s="38">
         <v>-16</v>
       </c>
       <c r="AD1" s="38"/>
-      <c r="AE1" s="39">
+      <c r="AE1" s="40">
         <v>14</v>
       </c>
-      <c r="AF1" s="39"/>
+      <c r="AF1" s="40"/>
       <c r="AG1" s="38">
         <v>-14</v>
       </c>
       <c r="AH1" s="38"/>
-      <c r="AI1" s="39">
+      <c r="AI1" s="40">
         <v>8</v>
       </c>
-      <c r="AJ1" s="39"/>
+      <c r="AJ1" s="40"/>
       <c r="AK1" s="38">
         <v>-8</v>
       </c>
       <c r="AL1" s="38"/>
-      <c r="AM1" s="39">
+      <c r="AM1" s="40">
         <v>9</v>
       </c>
-      <c r="AN1" s="39"/>
+      <c r="AN1" s="40"/>
       <c r="AO1" s="38">
         <v>-9</v>
       </c>
       <c r="AP1" s="38"/>
-      <c r="AQ1" s="39">
+      <c r="AQ1" s="40">
         <v>20</v>
       </c>
-      <c r="AR1" s="39"/>
+      <c r="AR1" s="40"/>
       <c r="AS1" s="38">
         <v>-20</v>
       </c>
       <c r="AT1" s="38"/>
-      <c r="AU1" s="39">
+      <c r="AU1" s="40">
         <v>6</v>
       </c>
-      <c r="AV1" s="39"/>
+      <c r="AV1" s="40"/>
       <c r="AW1" s="38">
         <v>-6</v>
       </c>
       <c r="AX1" s="38"/>
-      <c r="AY1" s="39">
+      <c r="AY1" s="40">
         <v>3</v>
       </c>
-      <c r="AZ1" s="39"/>
+      <c r="AZ1" s="40"/>
       <c r="BA1" s="38">
         <v>-3</v>
       </c>
       <c r="BB1" s="38"/>
-      <c r="BC1" s="39">
+      <c r="BC1" s="40">
         <v>10</v>
       </c>
-      <c r="BD1" s="39"/>
+      <c r="BD1" s="40"/>
       <c r="BE1" s="38" t="s">
         <v>208</v>
       </c>
       <c r="BF1" s="38"/>
-      <c r="BG1" s="39">
+      <c r="BG1" s="40">
         <v>11</v>
       </c>
-      <c r="BH1" s="39"/>
+      <c r="BH1" s="40"/>
       <c r="BI1" s="38">
         <v>-11</v>
       </c>
@@ -9383,10 +10001,10 @@
       <c r="BJ19" s="30"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="40"/>
+      <c r="D21" s="39"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
@@ -10442,13 +11060,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -10461,18 +11084,13 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -10483,7 +11101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFC3558-6FB3-4032-B099-A0E94BD60667}">
   <dimension ref="B1:AS93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EBAEAF-0088-4D06-8D72-04EB52A62C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13F8230-59AE-488F-83B1-E01109E9DE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="357">
   <si>
     <t>-6 -8</t>
   </si>
@@ -1090,19 +1090,13 @@
   </si>
   <si>
     <t>-17, 10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1195,22 +1189,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1219,6 +1197,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -1304,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1343,12 +1329,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,22 +1382,28 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1426,31 +1412,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1810,110 +1787,110 @@
     <row r="1" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="36">
+      <c r="C1" s="38">
         <v>17</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35">
+      <c r="D1" s="38"/>
+      <c r="E1" s="37">
         <v>-17</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="37">
+      <c r="F1" s="37"/>
+      <c r="G1" s="36">
         <v>19</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="36">
+      <c r="H1" s="36"/>
+      <c r="I1" s="38">
         <v>-19</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38">
         <v>9</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35">
+      <c r="L1" s="38"/>
+      <c r="M1" s="37">
         <v>-9</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="37">
+      <c r="N1" s="37"/>
+      <c r="O1" s="36">
         <v>7</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="36">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="38">
         <v>-7</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="37">
+      <c r="R1" s="38"/>
+      <c r="S1" s="36">
         <v>10</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36">
+      <c r="T1" s="36"/>
+      <c r="U1" s="38">
         <v>-10</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36">
+      <c r="V1" s="38"/>
+      <c r="W1" s="38">
         <v>11</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35">
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37">
         <v>-11</v>
       </c>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="36">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38">
         <v>14</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="35">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="37">
         <v>-14</v>
       </c>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="37">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="36">
         <v>15</v>
       </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36">
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="38">
         <v>-15</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36">
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38">
         <v>4</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="35">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="37">
         <v>-4</v>
       </c>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="36">
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="38">
         <v>18</v>
       </c>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="35">
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="37">
         <v>-18</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="36">
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38">
         <v>2</v>
       </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="35">
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="37">
         <v>-2</v>
       </c>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="37">
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="36">
         <v>8</v>
       </c>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="36">
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="38">
         <v>-8</v>
       </c>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="37">
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="36">
         <v>13</v>
       </c>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="35">
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="37">
         <v>-13</v>
       </c>
-      <c r="BB1" s="35"/>
+      <c r="BB1" s="37"/>
       <c r="BD1" s="9" t="s">
         <v>108</v>
       </c>
@@ -7448,14 +7425,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7468,12 +7443,14 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7611,10 +7588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7624,53 +7601,65 @@
     <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="37">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C1" s="36">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37">
         <v>-1</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="37">
+      <c r="F1" s="37"/>
+      <c r="G1" s="36">
         <v>2</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="35">
+      <c r="H1" s="36"/>
+      <c r="I1" s="37">
         <v>-2</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="37">
+      <c r="J1" s="37"/>
+      <c r="K1" s="36">
         <v>3</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="10">
+      <c r="L1" s="36"/>
+      <c r="M1" s="41">
         <v>-3</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-    </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="39">
+        <v>4</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41">
+        <v>-4</v>
+      </c>
+      <c r="R1" s="42"/>
+      <c r="S1" s="39">
+        <v>5</v>
+      </c>
+      <c r="T1" s="40"/>
+      <c r="U1" s="41">
+        <v>-5</v>
+      </c>
+      <c r="V1" s="42"/>
+      <c r="W1" s="39">
+        <v>6</v>
+      </c>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="41">
+        <v>-6</v>
+      </c>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="39">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="41">
+        <v>-7</v>
+      </c>
+      <c r="AD1" s="42"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7707,627 +7696,314 @@
       <c r="N2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-    </row>
-    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-    </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-    </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="14"/>
-    </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="37">
-        <v>1</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="35">
-        <v>-1</v>
-      </c>
+      <c r="C8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="35"/>
-      <c r="G8" s="37">
-        <v>2</v>
-      </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="35">
-        <v>-2</v>
-      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="37">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="41">
-        <v>-3</v>
-      </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="43">
-        <v>4</v>
-      </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="41">
-        <v>-4</v>
-      </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="43">
-        <v>5</v>
-      </c>
-      <c r="T8" s="44"/>
-      <c r="U8" s="41">
-        <v>-5</v>
-      </c>
-      <c r="V8" s="42"/>
-      <c r="W8" s="43">
-        <v>6</v>
-      </c>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="41">
-        <v>-6</v>
-      </c>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="43">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="41">
-        <v>-7</v>
-      </c>
-      <c r="AD8" s="42"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="46"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="47" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
+  <mergeCells count="14">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -8336,9 +8012,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A3:B6 A13:B16" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -8356,141 +8029,141 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="20" customWidth="1"/>
-    <col min="6" max="10" width="6.140625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="7" style="20" customWidth="1"/>
-    <col min="12" max="16" width="6.140625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="20" customWidth="1"/>
-    <col min="18" max="20" width="6.140625" style="20" customWidth="1"/>
-    <col min="21" max="26" width="6.140625" style="21" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" style="21" customWidth="1"/>
-    <col min="28" max="62" width="6.140625" style="21" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="18" customWidth="1"/>
+    <col min="6" max="10" width="6.140625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="7" style="18" customWidth="1"/>
+    <col min="12" max="16" width="6.140625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="18" customWidth="1"/>
+    <col min="18" max="20" width="6.140625" style="18" customWidth="1"/>
+    <col min="21" max="26" width="6.140625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" style="19" customWidth="1"/>
+    <col min="28" max="62" width="6.140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="40">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38">
+      <c r="C1" s="44">
+        <v>1</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="43">
         <v>-1</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="40">
+      <c r="F1" s="43"/>
+      <c r="G1" s="44">
         <v>5</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="38">
+      <c r="H1" s="44"/>
+      <c r="I1" s="43">
         <v>-5</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="40">
+      <c r="J1" s="43"/>
+      <c r="K1" s="44">
         <v>4</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="38">
+      <c r="L1" s="44"/>
+      <c r="M1" s="43">
         <v>-4</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="40">
+      <c r="N1" s="43"/>
+      <c r="O1" s="44">
         <v>12</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="38">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="43">
         <v>-12</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="40">
+      <c r="R1" s="43"/>
+      <c r="S1" s="44">
         <v>15</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="38">
+      <c r="T1" s="44"/>
+      <c r="U1" s="43">
         <v>-15</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="40">
+      <c r="V1" s="43"/>
+      <c r="W1" s="44">
         <v>18</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="38">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="43">
         <v>-18</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="40">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="44">
         <v>16</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="38">
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="43">
         <v>-16</v>
       </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="40">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44">
         <v>14</v>
       </c>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="38">
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="43">
         <v>-14</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="40">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44">
         <v>8</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="38">
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="43">
         <v>-8</v>
       </c>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="40">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="44">
         <v>9</v>
       </c>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="38">
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="43">
         <v>-9</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="40">
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="44">
         <v>20</v>
       </c>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="38">
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="43">
         <v>-20</v>
       </c>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="40">
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="44">
         <v>6</v>
       </c>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="38">
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="43">
         <v>-6</v>
       </c>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="40">
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="44">
         <v>3</v>
       </c>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="38">
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="43">
         <v>-3</v>
       </c>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="40">
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="44">
         <v>10</v>
       </c>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="38" t="s">
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="40">
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="44">
         <v>11</v>
       </c>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="38">
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="43">
         <v>-11</v>
       </c>
-      <c r="BJ1" s="38"/>
+      <c r="BJ1" s="43"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8499,184 +8172,184 @@
       <c r="B2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AG2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AH2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AI2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AK2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AL2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AO2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AP2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" s="16" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AR2" s="16" t="s">
+      <c r="AR2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AS2" s="17" t="s">
+      <c r="AS2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AT2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AU2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="16" t="s">
+      <c r="AV2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AW2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AX2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AY2" s="16" t="s">
+      <c r="AY2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="16" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="17" t="s">
+      <c r="BA2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BB2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="16" t="s">
+      <c r="BC2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="BD2" s="16" t="s">
+      <c r="BD2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BE2" s="17" t="s">
+      <c r="BE2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BF2" s="17" t="s">
+      <c r="BF2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BG2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="16" t="s">
+      <c r="BH2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="17" t="s">
+      <c r="BI2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" s="17" t="s">
+      <c r="BJ2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8687,80 +8360,80 @@
       <c r="B3" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18" t="s">
+      <c r="R3" s="17"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18" t="s">
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="18" t="s">
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="19" t="s">
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="18" t="s">
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="18" t="s">
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="17"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="17"/>
+      <c r="BJ3" s="17"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -8769,80 +8442,80 @@
       <c r="B4" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19" t="s">
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="18" t="s">
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="19" t="s">
+      <c r="X4" s="16"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18" t="s">
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="18"/>
-      <c r="BH4" s="18"/>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="19"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -8851,70 +8524,70 @@
       <c r="B5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="18"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="18"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="18"/>
-      <c r="BH5" s="18"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="17"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="17"/>
+      <c r="BF5" s="17"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="17"/>
+      <c r="BJ5" s="17"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -8923,74 +8596,74 @@
       <c r="B6" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18" t="s">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="18"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="18"/>
-      <c r="BD6" s="18"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="18"/>
-      <c r="BH6" s="18"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -8999,72 +8672,72 @@
       <c r="B7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18" t="s">
+      <c r="R7" s="17"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18" t="s">
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="18"/>
-      <c r="BD7" s="18"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="18"/>
-      <c r="BH7" s="18"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="17"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -9073,72 +8746,72 @@
       <c r="B8" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18" t="s">
+      <c r="N8" s="17"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="18"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="18"/>
-      <c r="AZ8" s="18"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="18"/>
-      <c r="BD8" s="18"/>
-      <c r="BE8" s="19"/>
-      <c r="BF8" s="19"/>
-      <c r="BG8" s="18"/>
-      <c r="BH8" s="18"/>
-      <c r="BI8" s="19"/>
-      <c r="BJ8" s="19"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="17"/>
+      <c r="BF8" s="17"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="17"/>
+      <c r="BJ8" s="17"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -9147,70 +8820,70 @@
       <c r="B9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19" t="s">
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19"/>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -9219,158 +8892,158 @@
       <c r="B10" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="19" t="s">
+      <c r="T10" s="16"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="18" t="s">
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="19" t="s">
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="19" t="s">
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="19"/>
-      <c r="BF10" s="19"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="19"/>
-      <c r="BJ10" s="19"/>
-    </row>
-    <row r="11" spans="1:62" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="17"/>
+      <c r="BF10" s="17"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="17"/>
+      <c r="BJ10" s="17"/>
+    </row>
+    <row r="11" spans="1:62" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26" t="s">
+      <c r="R11" s="25"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="27" t="s">
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="AH11" s="27" t="s">
+      <c r="AH11" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="27" t="s">
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="27" t="s">
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="27"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="27"/>
-      <c r="BC11" s="26"/>
-      <c r="BD11" s="26"/>
-      <c r="BE11" s="27"/>
-      <c r="BF11" s="27"/>
-      <c r="BG11" s="26"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="27"/>
-      <c r="BJ11" s="27"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="25"/>
+      <c r="BG11" s="24"/>
+      <c r="BH11" s="24"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -9379,162 +9052,162 @@
       <c r="B12" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="19"/>
-      <c r="BG12" s="18"/>
-      <c r="BH12" s="18"/>
-      <c r="BI12" s="19"/>
-      <c r="BJ12" s="19"/>
-    </row>
-    <row r="13" spans="1:62" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="17"/>
+      <c r="BF12" s="17"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="17"/>
+      <c r="BJ12" s="17"/>
+    </row>
+    <row r="13" spans="1:62" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26" t="s">
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="26" t="s">
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="27" t="s">
+      <c r="T13" s="24"/>
+      <c r="U13" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="V13" s="27" t="s">
+      <c r="V13" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="27" t="s">
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26" t="s">
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="26"/>
-      <c r="AR13" s="26"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26" t="s">
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="26"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27" t="s">
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="BG13" s="26"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="24"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -9543,70 +9216,70 @@
       <c r="B14" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="19" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="18"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="18"/>
-      <c r="BA14" s="19"/>
-      <c r="BB14" s="19"/>
-      <c r="BC14" s="18"/>
-      <c r="BD14" s="18"/>
-      <c r="BE14" s="19"/>
-      <c r="BF14" s="19"/>
-      <c r="BG14" s="18"/>
-      <c r="BH14" s="18"/>
-      <c r="BI14" s="19"/>
-      <c r="BJ14" s="19"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="17"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="17"/>
+      <c r="BF14" s="17"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="17"/>
+      <c r="BJ14" s="17"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -9615,230 +9288,230 @@
       <c r="B15" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="18" t="s">
+      <c r="N15" s="17"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="18"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="18"/>
-      <c r="AV15" s="18"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="18"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="18"/>
-      <c r="BD15" s="18"/>
-      <c r="BE15" s="19"/>
-      <c r="BF15" s="19"/>
-      <c r="BG15" s="18"/>
-      <c r="BH15" s="18"/>
-      <c r="BI15" s="19"/>
-      <c r="BJ15" s="19"/>
-    </row>
-    <row r="16" spans="1:62" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="T15" s="16"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="17"/>
+      <c r="BF15" s="17"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="17"/>
+      <c r="BJ15" s="17"/>
+    </row>
+    <row r="16" spans="1:62" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>15</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="27" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="V16" s="27"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="27" t="s">
+      <c r="V16" s="25"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="26" t="s">
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="26"/>
-      <c r="BD16" s="26"/>
-      <c r="BE16" s="27"/>
-      <c r="BF16" s="27"/>
-      <c r="BG16" s="26"/>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
-    </row>
-    <row r="17" spans="1:62" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="24"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="24"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="24"/>
+      <c r="BD16" s="24"/>
+      <c r="BE16" s="25"/>
+      <c r="BF16" s="25"/>
+      <c r="BG16" s="24"/>
+      <c r="BH16" s="24"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+    </row>
+    <row r="17" spans="1:62" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26" t="s">
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27" t="s">
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="26"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="27"/>
-      <c r="BC17" s="26"/>
-      <c r="BD17" s="26"/>
-      <c r="BE17" s="27"/>
-      <c r="BF17" s="27"/>
-      <c r="BG17" s="26"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="27"/>
-      <c r="BJ17" s="27"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="24"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="24"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="25"/>
+      <c r="BF17" s="25"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="24"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -9847,1219 +9520,1238 @@
       <c r="B18" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>17</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19" t="s">
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="19" t="s">
+      <c r="N18" s="17"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="18"/>
-      <c r="BD18" s="18"/>
-      <c r="BE18" s="19"/>
-      <c r="BF18" s="19"/>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="18"/>
-      <c r="BI18" s="19" t="s">
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="BJ18" s="19"/>
-    </row>
-    <row r="19" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="BJ18" s="17"/>
+    </row>
+    <row r="19" spans="1:62" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>-14</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="30" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29" t="s">
+      <c r="R19" s="28"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="29" t="s">
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="29"/>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="29"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="29"/>
-      <c r="BD19" s="29"/>
-      <c r="BE19" s="30"/>
-      <c r="BF19" s="30"/>
-      <c r="BG19" s="29"/>
-      <c r="BH19" s="29"/>
-      <c r="BI19" s="30"/>
-      <c r="BJ19" s="30"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="27"/>
+      <c r="BE19" s="28"/>
+      <c r="BF19" s="28"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="28"/>
+      <c r="BJ19" s="28"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="20" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="20" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="20" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="20" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="18" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="18" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="18" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="21" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="21" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="18" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="18" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="18" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="18" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="18" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="18" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="18" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="18" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="18" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="18" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="18" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="18" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="18" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="18" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="18" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="18" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="18" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="18" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="18" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="18" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="18" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="18" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="18" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="18" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="18" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="18" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E76" s="30" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="18" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="18" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="18" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="18" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="18" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="18" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="18" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="D84" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="E84" s="32" t="s">
+      <c r="E84" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="32" t="s">
+      <c r="C85" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="30" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="18" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="18" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="E88" s="18" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="18" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="18" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="18" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D92" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E92" s="18" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="18" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="D94" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="18" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95" s="32" t="s">
+      <c r="C95" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D95" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="E95" s="32" t="s">
+      <c r="E95" s="30" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96" s="32" t="s">
+      <c r="C96" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D96" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="E96" s="32" t="s">
+      <c r="E96" s="30" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="18" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="32" t="s">
+      <c r="C98" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="32" t="s">
+      <c r="E98" s="30" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="18" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="18" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="18" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="18" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E104" s="20" t="s">
+      <c r="E104" s="18" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="18" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="18" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="18" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="18" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="18" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D110" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="18" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="18" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C112" s="32" t="s">
+      <c r="C112" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D112" s="32" t="s">
+      <c r="D112" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="E112" s="32" t="s">
+      <c r="E112" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D113" s="32" t="s">
+      <c r="D113" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="E113" s="32" t="s">
+      <c r="E113" s="30" t="s">
         <v>259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
@@ -11072,25 +10764,6 @@
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11240,10 +10913,10 @@
       </c>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>249</v>
       </c>
       <c r="F2" s="11"/>
@@ -11296,10 +10969,10 @@
       <c r="AS2" s="11"/>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>355</v>
       </c>
       <c r="F3" s="11"/>
@@ -11352,10 +11025,10 @@
       <c r="AS3" s="11"/>
     </row>
     <row r="4" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>250</v>
       </c>
       <c r="F4" s="11"/>
@@ -11408,10 +11081,10 @@
       <c r="AS4" s="11"/>
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>356</v>
       </c>
       <c r="F5" s="11"/>
@@ -11464,10 +11137,10 @@
       <c r="AS5" s="11"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>251</v>
       </c>
       <c r="F6" s="11"/>
@@ -11520,10 +11193,10 @@
       <c r="AS6" s="11"/>
     </row>
     <row r="7" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>252</v>
       </c>
       <c r="F7" s="11"/>
@@ -11576,10 +11249,10 @@
       <c r="AS7" s="11"/>
     </row>
     <row r="8" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>251</v>
       </c>
       <c r="F8" s="11"/>
@@ -11632,10 +11305,10 @@
       <c r="AS8" s="11"/>
     </row>
     <row r="9" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>253</v>
       </c>
       <c r="F9" s="11"/>
@@ -11688,10 +11361,10 @@
       <c r="AS9" s="11"/>
     </row>
     <row r="10" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>254</v>
       </c>
       <c r="F10" s="11"/>
@@ -11744,10 +11417,10 @@
       <c r="AS10" s="11"/>
     </row>
     <row r="11" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>255</v>
       </c>
       <c r="F11" s="11"/>
@@ -11800,10 +11473,10 @@
       <c r="AS11" s="11"/>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>256</v>
       </c>
       <c r="F12" s="11"/>
@@ -11856,10 +11529,10 @@
       <c r="AS12" s="11"/>
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>257</v>
       </c>
       <c r="F13" s="11"/>
@@ -11912,10 +11585,10 @@
       <c r="AS13" s="11"/>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>214</v>
       </c>
       <c r="F14" s="11"/>
@@ -11966,10 +11639,10 @@
       <c r="AS14" s="11"/>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>258</v>
       </c>
       <c r="F15" s="11"/>
@@ -12022,10 +11695,10 @@
       <c r="AS15" s="11"/>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>259</v>
       </c>
       <c r="F16" s="11"/>
@@ -12078,10 +11751,10 @@
       <c r="AS16" s="11"/>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>260</v>
       </c>
       <c r="F17" s="11"/>
@@ -12134,10 +11807,10 @@
       <c r="AS17" s="11"/>
     </row>
     <row r="18" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>261</v>
       </c>
       <c r="F18" s="11"/>
@@ -12190,10 +11863,10 @@
       <c r="AS18" s="11"/>
     </row>
     <row r="19" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>262</v>
       </c>
       <c r="F19" s="11"/>
@@ -12246,10 +11919,10 @@
       <c r="AS19" s="11"/>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>264</v>
       </c>
       <c r="F20" s="11"/>
@@ -12302,10 +11975,10 @@
       <c r="AS20" s="11"/>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="11"/>
@@ -12358,10 +12031,10 @@
       <c r="AS21" s="11"/>
     </row>
     <row r="22" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>261</v>
       </c>
       <c r="F22" s="11"/>
@@ -12414,10 +12087,10 @@
       <c r="AS22" s="11"/>
     </row>
     <row r="23" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>262</v>
       </c>
       <c r="F23" s="11"/>
@@ -12470,10 +12143,10 @@
       <c r="AS23" s="11"/>
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>266</v>
       </c>
       <c r="F24" s="11"/>
@@ -12526,10 +12199,10 @@
       <c r="AS24" s="11"/>
     </row>
     <row r="25" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>266</v>
       </c>
       <c r="F25" s="11"/>
@@ -12582,10 +12255,10 @@
       <c r="AS25" s="11"/>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>268</v>
       </c>
       <c r="F26" s="11"/>
@@ -12638,10 +12311,10 @@
       <c r="AS26" s="11"/>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>269</v>
       </c>
       <c r="F27" s="11"/>
@@ -12694,10 +12367,10 @@
       <c r="AS27" s="11"/>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>250</v>
       </c>
       <c r="F28" s="11"/>
@@ -12750,10 +12423,10 @@
       <c r="AS28" s="11"/>
     </row>
     <row r="29" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="11"/>
@@ -12806,10 +12479,10 @@
       <c r="AS29" s="11"/>
     </row>
     <row r="30" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>273</v>
       </c>
       <c r="F30" s="11"/>
@@ -12862,10 +12535,10 @@
       <c r="AS30" s="11"/>
     </row>
     <row r="31" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>207</v>
       </c>
       <c r="F31" s="11"/>
@@ -12916,10 +12589,10 @@
       <c r="AS31" s="11"/>
     </row>
     <row r="32" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>207</v>
       </c>
       <c r="F32" s="11"/>
@@ -12970,10 +12643,10 @@
       </c>
     </row>
     <row r="33" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>275</v>
       </c>
       <c r="F33" s="11"/>
@@ -13024,10 +12697,10 @@
       <c r="AS33" s="11"/>
     </row>
     <row r="34" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>269</v>
       </c>
       <c r="F34" s="11"/>
@@ -13080,10 +12753,10 @@
       <c r="AS34" s="11"/>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>278</v>
       </c>
       <c r="F35" s="11"/>
@@ -13136,10 +12809,10 @@
       </c>
     </row>
     <row r="36" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>280</v>
       </c>
       <c r="F36" s="11"/>
@@ -13192,10 +12865,10 @@
       <c r="AS36" s="11"/>
     </row>
     <row r="37" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>284</v>
       </c>
       <c r="F37" s="11"/>
@@ -13248,10 +12921,10 @@
       <c r="AS37" s="11"/>
     </row>
     <row r="38" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>283</v>
       </c>
       <c r="F38" s="11"/>
@@ -13304,10 +12977,10 @@
       <c r="AS38" s="11"/>
     </row>
     <row r="39" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>286</v>
       </c>
       <c r="F39" s="11"/>
@@ -13360,10 +13033,10 @@
       <c r="AS39" s="11"/>
     </row>
     <row r="40" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>287</v>
       </c>
       <c r="F40" s="11"/>
@@ -13416,10 +13089,10 @@
       <c r="AS40" s="11"/>
     </row>
     <row r="41" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>289</v>
       </c>
       <c r="F41" s="11"/>
@@ -13472,10 +13145,10 @@
       <c r="AS41" s="11"/>
     </row>
     <row r="42" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>291</v>
       </c>
       <c r="F42" s="11"/>
@@ -13528,10 +13201,10 @@
       <c r="AS42" s="11"/>
     </row>
     <row r="43" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>293</v>
       </c>
       <c r="F43" s="11"/>
@@ -13584,10 +13257,10 @@
       <c r="AS43" s="11"/>
     </row>
     <row r="44" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="18" t="s">
         <v>294</v>
       </c>
       <c r="F44" s="11"/>
@@ -13640,10 +13313,10 @@
       <c r="AS44" s="11"/>
     </row>
     <row r="45" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="18" t="s">
         <v>295</v>
       </c>
       <c r="F45" s="11"/>
@@ -13694,10 +13367,10 @@
       <c r="AS45" s="11"/>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F46" s="11"/>
@@ -13750,10 +13423,10 @@
       <c r="AS46" s="11"/>
     </row>
     <row r="47" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>208</v>
       </c>
       <c r="F47" s="11"/>
@@ -13804,10 +13477,10 @@
       <c r="AS47" s="11"/>
     </row>
     <row r="48" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>298</v>
       </c>
       <c r="F48" s="11"/>
@@ -13860,10 +13533,10 @@
       <c r="AS48" s="11"/>
     </row>
     <row r="49" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>298</v>
       </c>
       <c r="F49" s="11"/>
@@ -13916,10 +13589,10 @@
       <c r="AS49" s="11"/>
     </row>
     <row r="50" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>301</v>
       </c>
       <c r="F50" s="11"/>
@@ -13970,10 +13643,10 @@
       <c r="AS50" s="11"/>
     </row>
     <row r="51" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="30" t="s">
         <v>303</v>
       </c>
       <c r="F51" s="11"/>
@@ -14026,10 +13699,10 @@
       <c r="AS51" s="11"/>
     </row>
     <row r="52" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="18" t="s">
         <v>304</v>
       </c>
       <c r="F52" s="11"/>
@@ -14082,10 +13755,10 @@
       <c r="AS52" s="11"/>
     </row>
     <row r="53" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>305</v>
       </c>
       <c r="F53" s="11"/>
@@ -14138,10 +13811,10 @@
       <c r="AS53" s="11"/>
     </row>
     <row r="54" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>310</v>
       </c>
       <c r="F54" s="11"/>
@@ -14194,10 +13867,10 @@
       <c r="AS54" s="11"/>
     </row>
     <row r="55" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>306</v>
       </c>
       <c r="F55" s="11"/>
@@ -14250,10 +13923,10 @@
       <c r="AS55" s="11"/>
     </row>
     <row r="56" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="30" t="s">
         <v>312</v>
       </c>
       <c r="F56" s="11"/>
@@ -14306,10 +13979,10 @@
       <c r="AS56" s="11"/>
     </row>
     <row r="57" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>313</v>
       </c>
       <c r="F57" s="11"/>
@@ -14362,10 +14035,10 @@
       <c r="AS57" s="11"/>
     </row>
     <row r="58" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>313</v>
       </c>
       <c r="F58" s="11"/>
@@ -14418,10 +14091,10 @@
       <c r="AS58" s="11"/>
     </row>
     <row r="59" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>317</v>
       </c>
       <c r="F59" s="11"/>
@@ -14474,10 +14147,10 @@
       <c r="AS59" s="11"/>
     </row>
     <row r="60" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>318</v>
       </c>
       <c r="F60" s="11"/>
@@ -14528,10 +14201,10 @@
       <c r="AS60" s="11"/>
     </row>
     <row r="61" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="18" t="s">
         <v>320</v>
       </c>
       <c r="F61" s="11"/>
@@ -14584,10 +14257,10 @@
       <c r="AS61" s="11"/>
     </row>
     <row r="62" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="18" t="s">
         <v>320</v>
       </c>
       <c r="F62" s="11"/>
@@ -14640,10 +14313,10 @@
       <c r="AS62" s="11"/>
     </row>
     <row r="63" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="18" t="s">
         <v>323</v>
       </c>
       <c r="F63" s="11"/>
@@ -14696,10 +14369,10 @@
       <c r="AS63" s="11"/>
     </row>
     <row r="64" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="30" t="s">
         <v>325</v>
       </c>
       <c r="F64" s="11"/>
@@ -14752,10 +14425,10 @@
       <c r="AS64" s="11"/>
     </row>
     <row r="65" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="30" t="s">
         <v>327</v>
       </c>
       <c r="F65" s="11" t="s">
@@ -14808,10 +14481,10 @@
       <c r="AS65" s="11"/>
     </row>
     <row r="66" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="18" t="s">
         <v>328</v>
       </c>
       <c r="F66" s="11"/>
@@ -14864,10 +14537,10 @@
       <c r="AS66" s="11"/>
     </row>
     <row r="67" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>331</v>
       </c>
       <c r="F67" s="11"/>
@@ -14920,10 +14593,10 @@
       <c r="AS67" s="11"/>
     </row>
     <row r="68" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>330</v>
       </c>
       <c r="F68" s="11"/>
@@ -14976,10 +14649,10 @@
       <c r="AS68" s="11"/>
     </row>
     <row r="69" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="18" t="s">
         <v>333</v>
       </c>
       <c r="F69" s="11"/>
@@ -15032,10 +14705,10 @@
       <c r="AS69" s="11"/>
     </row>
     <row r="70" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="18" t="s">
         <v>190</v>
       </c>
       <c r="F70" s="11"/>
@@ -15086,10 +14759,10 @@
       <c r="AS70" s="11"/>
     </row>
     <row r="71" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="18" t="s">
         <v>337</v>
       </c>
       <c r="F71" s="11"/>
@@ -15142,10 +14815,10 @@
       <c r="AS71" s="11"/>
     </row>
     <row r="72" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="18" t="s">
         <v>336</v>
       </c>
       <c r="F72" s="11"/>
@@ -15198,10 +14871,10 @@
       <c r="AS72" s="11"/>
     </row>
     <row r="73" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="18" t="s">
         <v>338</v>
       </c>
       <c r="F73" s="11"/>
@@ -15254,10 +14927,10 @@
       <c r="AS73" s="11"/>
     </row>
     <row r="74" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="18" t="s">
         <v>339</v>
       </c>
       <c r="F74" s="11"/>
@@ -15310,10 +14983,10 @@
       <c r="AS74" s="11"/>
     </row>
     <row r="75" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="30" t="s">
         <v>340</v>
       </c>
       <c r="F75" s="11"/>
@@ -15366,10 +15039,10 @@
       <c r="AS75" s="11"/>
     </row>
     <row r="76" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="30" t="s">
         <v>342</v>
       </c>
       <c r="F76" s="11"/>
@@ -15422,10 +15095,10 @@
       <c r="AS76" s="11"/>
     </row>
     <row r="77" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>339</v>
       </c>
       <c r="F77" s="11"/>
@@ -15476,10 +15149,10 @@
       <c r="AS77" s="11"/>
     </row>
     <row r="78" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="30" t="s">
         <v>340</v>
       </c>
       <c r="F78" s="11"/>
@@ -15532,10 +15205,10 @@
       <c r="AS78" s="11"/>
     </row>
     <row r="79" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="18" t="s">
         <v>343</v>
       </c>
       <c r="F79" s="11" t="s">
@@ -15588,10 +15261,10 @@
       <c r="AS79" s="11"/>
     </row>
     <row r="80" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="18" t="s">
         <v>342</v>
       </c>
       <c r="F80" s="11" t="s">
@@ -15646,10 +15319,10 @@
       <c r="AS80" s="11"/>
     </row>
     <row r="81" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="18" t="s">
         <v>345</v>
       </c>
       <c r="F81" s="11" t="s">
@@ -15698,10 +15371,10 @@
       <c r="AS81" s="11"/>
     </row>
     <row r="82" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F82" s="11"/>
@@ -15754,10 +15427,10 @@
       <c r="AS82" s="11"/>
     </row>
     <row r="83" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="18" t="s">
         <v>346</v>
       </c>
       <c r="F83" s="11"/>
@@ -15810,10 +15483,10 @@
       <c r="AS83" s="11"/>
     </row>
     <row r="84" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="18" t="s">
         <v>347</v>
       </c>
       <c r="F84" s="11"/>
@@ -15866,10 +15539,10 @@
       <c r="AS84" s="11"/>
     </row>
     <row r="85" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="18" t="s">
         <v>348</v>
       </c>
       <c r="F85" s="11"/>
@@ -15922,10 +15595,10 @@
       <c r="AS85" s="11"/>
     </row>
     <row r="86" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="18" t="s">
         <v>350</v>
       </c>
       <c r="F86" s="11"/>
@@ -15978,10 +15651,10 @@
       <c r="AS86" s="11"/>
     </row>
     <row r="87" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="18" t="s">
         <v>351</v>
       </c>
       <c r="F87" s="11"/>
@@ -16034,10 +15707,10 @@
       <c r="AS87" s="11"/>
     </row>
     <row r="88" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="18" t="s">
         <v>338</v>
       </c>
       <c r="F88" s="11"/>
@@ -16090,10 +15763,10 @@
       <c r="AS88" s="11"/>
     </row>
     <row r="89" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="18" t="s">
         <v>352</v>
       </c>
       <c r="F89" s="11"/>
@@ -16146,10 +15819,10 @@
       <c r="AS89" s="11"/>
     </row>
     <row r="90" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="18" t="s">
         <v>203</v>
       </c>
       <c r="F90" s="11"/>
@@ -16202,10 +15875,10 @@
       <c r="AS90" s="11"/>
     </row>
     <row r="91" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="18" t="s">
         <v>353</v>
       </c>
       <c r="F91" s="11"/>
@@ -16258,10 +15931,10 @@
       <c r="AS91" s="11"/>
     </row>
     <row r="92" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C92" s="30" t="s">
         <v>58</v>
       </c>
       <c r="F92" s="11"/>
@@ -16314,10 +15987,10 @@
       <c r="AS92" s="11"/>
     </row>
     <row r="93" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C93" s="30" t="s">
         <v>259</v>
       </c>
       <c r="F93" s="11"/>

--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13F8230-59AE-488F-83B1-E01109E9DE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A438681-5DCF-4C27-88E7-70171C7B4D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1391,13 +1391,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,19 +1424,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1787,110 +1787,110 @@
     <row r="1" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="38">
+      <c r="C1" s="40">
         <v>17</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37">
+      <c r="D1" s="40"/>
+      <c r="E1" s="39">
         <v>-17</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="36">
+      <c r="F1" s="39"/>
+      <c r="G1" s="41">
         <v>19</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="38">
+      <c r="H1" s="41"/>
+      <c r="I1" s="40">
         <v>-19</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40">
         <v>9</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37">
+      <c r="L1" s="40"/>
+      <c r="M1" s="39">
         <v>-9</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36">
+      <c r="N1" s="39"/>
+      <c r="O1" s="41">
         <v>7</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="40">
         <v>-7</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="36">
+      <c r="R1" s="40"/>
+      <c r="S1" s="41">
         <v>10</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="38">
+      <c r="T1" s="41"/>
+      <c r="U1" s="40">
         <v>-10</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38">
+      <c r="V1" s="40"/>
+      <c r="W1" s="40">
         <v>11</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="39">
         <v>-11</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="40">
         <v>14</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="37">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="39">
         <v>-14</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="36">
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="41">
         <v>15</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="38">
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="40">
         <v>-15</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38">
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40">
         <v>4</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="37">
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="39">
         <v>-4</v>
       </c>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="38">
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="40">
         <v>18</v>
       </c>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="37">
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="39">
         <v>-18</v>
       </c>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="38">
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40">
         <v>2</v>
       </c>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="37">
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="39">
         <v>-2</v>
       </c>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="36">
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="41">
         <v>8</v>
       </c>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="38">
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="40">
         <v>-8</v>
       </c>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="36">
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="41">
         <v>13</v>
       </c>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="37">
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="39">
         <v>-13</v>
       </c>
-      <c r="BB1" s="37"/>
+      <c r="BB1" s="39"/>
       <c r="BD1" s="9" t="s">
         <v>108</v>
       </c>
@@ -7425,12 +7425,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7443,14 +7445,12 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7591,7 +7591,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7602,62 +7602,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C1" s="36">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37">
+      <c r="C1" s="41">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="39">
         <v>-1</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="36">
+      <c r="F1" s="39"/>
+      <c r="G1" s="41">
         <v>2</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37">
+      <c r="H1" s="41"/>
+      <c r="I1" s="39">
         <v>-2</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="36">
+      <c r="J1" s="39"/>
+      <c r="K1" s="41">
         <v>3</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="41">
+      <c r="L1" s="41"/>
+      <c r="M1" s="44">
         <v>-3</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="39">
+      <c r="N1" s="45"/>
+      <c r="O1" s="42">
         <v>4</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44">
         <v>-4</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="39">
+      <c r="R1" s="45"/>
+      <c r="S1" s="42">
         <v>5</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41">
+      <c r="T1" s="43"/>
+      <c r="U1" s="44">
         <v>-5</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="39">
+      <c r="V1" s="45"/>
+      <c r="W1" s="42">
         <v>6</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44">
         <v>-6</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="39">
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="42">
         <v>7</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="41">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44">
         <v>-7</v>
       </c>
-      <c r="AD1" s="42"/>
+      <c r="AD1" s="45"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
@@ -7752,36 +7752,36 @@
       <c r="B3" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="J3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
       <c r="M3" s="35"/>
       <c r="N3" s="35"/>
-      <c r="O3" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="46"/>
+      <c r="O3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="36"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
       <c r="U3" s="35"/>
       <c r="V3" s="35"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
       <c r="Y3" s="35"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
       <c r="AC3" s="35"/>
       <c r="AD3" s="35"/>
     </row>
@@ -7792,36 +7792,36 @@
       <c r="B4" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
+      <c r="N4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
-      <c r="W4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" s="46"/>
+      <c r="W4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="36"/>
       <c r="Y4" s="35"/>
       <c r="Z4" s="35"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
       <c r="AC4" s="35"/>
       <c r="AD4" s="35"/>
     </row>
@@ -7832,36 +7832,36 @@
       <c r="B5" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="34" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="35"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="35"/>
       <c r="N5" s="35"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
       <c r="Q5" s="35"/>
-      <c r="R5" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
+      <c r="R5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
       <c r="U5" s="35"/>
       <c r="V5" s="35"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
       <c r="Y5" s="35"/>
       <c r="Z5" s="35"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
       <c r="AC5" s="35"/>
       <c r="AD5" s="35"/>
     </row>
@@ -7872,40 +7872,40 @@
       <c r="B6" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="34" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="35"/>
       <c r="N6" s="35"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35"/>
-      <c r="S6" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="35"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>1</v>
+      </c>
       <c r="V6" s="35"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
       <c r="Y6" s="35"/>
       <c r="Z6" s="35"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
       <c r="AC6" s="35"/>
       <c r="AD6" s="35"/>
     </row>
@@ -7919,33 +7919,33 @@
       <c r="C7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="35"/>
       <c r="N7" s="35"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
       <c r="U7" s="35"/>
       <c r="V7" s="35"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
       <c r="Y7" s="35"/>
-      <c r="Z7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
+      <c r="Z7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="35"/>
     </row>
@@ -7959,42 +7959,47 @@
       <c r="C8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="48" t="s">
+      <c r="K8" s="36"/>
+      <c r="L8" s="38" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
       <c r="Y8" s="35"/>
       <c r="Z8" s="35"/>
-      <c r="AA8" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="46"/>
+      <c r="AA8" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="36"/>
       <c r="AC8" s="35"/>
-      <c r="AD8" s="47" t="s">
+      <c r="AD8" s="37" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
@@ -8004,11 +8009,6 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8044,126 +8044,126 @@
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="44">
-        <v>1</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43">
+      <c r="C1" s="48">
+        <v>1</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="46">
         <v>-1</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44">
+      <c r="F1" s="46"/>
+      <c r="G1" s="48">
         <v>5</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="43">
+      <c r="H1" s="48"/>
+      <c r="I1" s="46">
         <v>-5</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44">
+      <c r="J1" s="46"/>
+      <c r="K1" s="48">
         <v>4</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="43">
+      <c r="L1" s="48"/>
+      <c r="M1" s="46">
         <v>-4</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44">
+      <c r="N1" s="46"/>
+      <c r="O1" s="48">
         <v>12</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="43">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="46">
         <v>-12</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44">
+      <c r="R1" s="46"/>
+      <c r="S1" s="48">
         <v>15</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="43">
+      <c r="T1" s="48"/>
+      <c r="U1" s="46">
         <v>-15</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="44">
+      <c r="V1" s="46"/>
+      <c r="W1" s="48">
         <v>18</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="43">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="46">
         <v>-18</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="44">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="48">
         <v>16</v>
       </c>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="43">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="46">
         <v>-16</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44">
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="48">
         <v>14</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="43">
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="46">
         <v>-14</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44">
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="48">
         <v>8</v>
       </c>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="43">
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="46">
         <v>-8</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="44">
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="48">
         <v>9</v>
       </c>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="43">
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="46">
         <v>-9</v>
       </c>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="44">
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="48">
         <v>20</v>
       </c>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="43">
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="46">
         <v>-20</v>
       </c>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="44">
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="48">
         <v>6</v>
       </c>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="43">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="46">
         <v>-6</v>
       </c>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="44">
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="48">
         <v>3</v>
       </c>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="43">
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="46">
         <v>-3</v>
       </c>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="44">
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="48">
         <v>10</v>
       </c>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="43" t="s">
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="44">
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="48">
         <v>11</v>
       </c>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="43">
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="46">
         <v>-11</v>
       </c>
-      <c r="BJ1" s="43"/>
+      <c r="BJ1" s="46"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -9674,10 +9674,10 @@
       <c r="BJ19" s="28"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C22" s="18" t="s">
@@ -10733,13 +10733,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -10752,18 +10757,13 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A438681-5DCF-4C27-88E7-70171C7B4D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E61E76-6581-4EBB-8020-EE78DD9B1AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="360">
   <si>
     <t>-6 -8</t>
   </si>
@@ -1090,6 +1090,15 @@
   </si>
   <si>
     <t>-17, 10</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,13 +1409,13 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,10 +1433,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1787,110 +1808,110 @@
     <row r="1" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="40">
+      <c r="C1" s="41">
         <v>17</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="39">
+      <c r="D1" s="41"/>
+      <c r="E1" s="40">
         <v>-17</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="41">
+      <c r="F1" s="40"/>
+      <c r="G1" s="39">
         <v>19</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="40">
+      <c r="H1" s="39"/>
+      <c r="I1" s="41">
         <v>-19</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41">
         <v>9</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="39">
+      <c r="L1" s="41"/>
+      <c r="M1" s="40">
         <v>-9</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="41">
+      <c r="N1" s="40"/>
+      <c r="O1" s="39">
         <v>7</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="40">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="41">
         <v>-7</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41">
+      <c r="R1" s="41"/>
+      <c r="S1" s="39">
         <v>10</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="40">
+      <c r="T1" s="39"/>
+      <c r="U1" s="41">
         <v>-10</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41">
         <v>11</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="39">
+      <c r="X1" s="41"/>
+      <c r="Y1" s="40">
         <v>-11</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="41">
         <v>14</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="39">
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="40">
         <v>-14</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="41">
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="39">
         <v>15</v>
       </c>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="40">
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="41">
         <v>-15</v>
       </c>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40">
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41">
         <v>4</v>
       </c>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="39">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="40">
         <v>-4</v>
       </c>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="40">
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="41">
         <v>18</v>
       </c>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="39">
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="40">
         <v>-18</v>
       </c>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="40">
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="41">
         <v>2</v>
       </c>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="39">
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="40">
         <v>-2</v>
       </c>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="41">
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="39">
         <v>8</v>
       </c>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="40">
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="41">
         <v>-8</v>
       </c>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="41">
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="39">
         <v>13</v>
       </c>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="39">
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="40">
         <v>-13</v>
       </c>
-      <c r="BB1" s="39"/>
+      <c r="BB1" s="40"/>
       <c r="BD1" s="9" t="s">
         <v>108</v>
       </c>
@@ -7425,14 +7446,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7445,12 +7464,14 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7588,40 +7609,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="6" style="6" customWidth="1"/>
     <col min="3" max="30" width="3.85546875" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="31" max="31" width="5.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="6" style="6" customWidth="1"/>
+    <col min="33" max="46" width="3.85546875" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C1" s="41">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="39">
+      <c r="C1" s="39">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40">
         <v>-1</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="41">
+      <c r="F1" s="40"/>
+      <c r="G1" s="39">
         <v>2</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="39">
+      <c r="H1" s="39"/>
+      <c r="I1" s="40">
         <v>-2</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="41">
+      <c r="J1" s="40"/>
+      <c r="K1" s="39">
         <v>3</v>
       </c>
-      <c r="L1" s="41"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="44">
         <v>-3</v>
       </c>
@@ -7993,13 +8017,626 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-4</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>-5</v>
+      </c>
+      <c r="K11" s="7">
+        <v>6</v>
+      </c>
+      <c r="L11" s="7">
+        <v>-6</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>-3</v>
+      </c>
+      <c r="O11" s="7">
+        <v>7</v>
+      </c>
+      <c r="P11" s="7">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="P17" s="50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14">
+        <v>-4</v>
+      </c>
+      <c r="G20" s="14">
+        <v>2</v>
+      </c>
+      <c r="H20" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I20" s="14">
+        <v>5</v>
+      </c>
+      <c r="J20" s="14">
+        <v>-5</v>
+      </c>
+      <c r="K20" s="14">
+        <v>6</v>
+      </c>
+      <c r="L20" s="14">
+        <v>-6</v>
+      </c>
+      <c r="M20" s="14">
+        <v>3</v>
+      </c>
+      <c r="N20" s="14">
+        <v>-3</v>
+      </c>
+      <c r="O20" s="14">
+        <v>7</v>
+      </c>
+      <c r="P20" s="14">
+        <v>-7</v>
+      </c>
+      <c r="AF20" s="1"/>
+      <c r="AH20" s="6"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="AF21" s="1"/>
+      <c r="AH21" s="6"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="AF22" s="1"/>
+      <c r="AH22" s="6"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
+        <v>4</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="AF23" s="1"/>
+      <c r="AH23" s="6"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
+        <v>-4</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="AF24" s="1"/>
+      <c r="AH24" s="6"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>2</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="AF25" s="1"/>
+      <c r="AH25" s="6"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
+      <c r="AF26" s="1"/>
+      <c r="AH26" s="6"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B27" s="14">
+        <v>5</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="AF27" s="1"/>
+      <c r="AH27" s="6"/>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
+        <v>-5</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="AF28" s="1"/>
+      <c r="AH28" s="6"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <v>6</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="N29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="AF29" s="1"/>
+      <c r="AH29" s="6"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <v>-6</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+      <c r="AF30" s="1"/>
+      <c r="AH30" s="6"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <v>3</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF31" s="1"/>
+      <c r="AH31" s="6"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
+        <v>-3</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+      <c r="AF32" s="1"/>
+      <c r="AH32" s="6"/>
+    </row>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
+        <v>7</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="O33" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="P33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="1"/>
+      <c r="AH33" s="6"/>
+    </row>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
+        <v>-7</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF34" s="1"/>
+      <c r="AH34" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
@@ -8009,6 +8646,11 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8044,122 +8686,122 @@
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="48">
-        <v>1</v>
-      </c>
-      <c r="D1" s="48"/>
+      <c r="C1" s="47">
+        <v>1</v>
+      </c>
+      <c r="D1" s="47"/>
       <c r="E1" s="46">
         <v>-1</v>
       </c>
       <c r="F1" s="46"/>
-      <c r="G1" s="48">
+      <c r="G1" s="47">
         <v>5</v>
       </c>
-      <c r="H1" s="48"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="46">
         <v>-5</v>
       </c>
       <c r="J1" s="46"/>
-      <c r="K1" s="48">
+      <c r="K1" s="47">
         <v>4</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="46">
         <v>-4</v>
       </c>
       <c r="N1" s="46"/>
-      <c r="O1" s="48">
+      <c r="O1" s="47">
         <v>12</v>
       </c>
-      <c r="P1" s="48"/>
+      <c r="P1" s="47"/>
       <c r="Q1" s="46">
         <v>-12</v>
       </c>
       <c r="R1" s="46"/>
-      <c r="S1" s="48">
+      <c r="S1" s="47">
         <v>15</v>
       </c>
-      <c r="T1" s="48"/>
+      <c r="T1" s="47"/>
       <c r="U1" s="46">
         <v>-15</v>
       </c>
       <c r="V1" s="46"/>
-      <c r="W1" s="48">
+      <c r="W1" s="47">
         <v>18</v>
       </c>
-      <c r="X1" s="48"/>
+      <c r="X1" s="47"/>
       <c r="Y1" s="46">
         <v>-18</v>
       </c>
       <c r="Z1" s="46"/>
-      <c r="AA1" s="48">
+      <c r="AA1" s="47">
         <v>16</v>
       </c>
-      <c r="AB1" s="48"/>
+      <c r="AB1" s="47"/>
       <c r="AC1" s="46">
         <v>-16</v>
       </c>
       <c r="AD1" s="46"/>
-      <c r="AE1" s="48">
+      <c r="AE1" s="47">
         <v>14</v>
       </c>
-      <c r="AF1" s="48"/>
+      <c r="AF1" s="47"/>
       <c r="AG1" s="46">
         <v>-14</v>
       </c>
       <c r="AH1" s="46"/>
-      <c r="AI1" s="48">
+      <c r="AI1" s="47">
         <v>8</v>
       </c>
-      <c r="AJ1" s="48"/>
+      <c r="AJ1" s="47"/>
       <c r="AK1" s="46">
         <v>-8</v>
       </c>
       <c r="AL1" s="46"/>
-      <c r="AM1" s="48">
+      <c r="AM1" s="47">
         <v>9</v>
       </c>
-      <c r="AN1" s="48"/>
+      <c r="AN1" s="47"/>
       <c r="AO1" s="46">
         <v>-9</v>
       </c>
       <c r="AP1" s="46"/>
-      <c r="AQ1" s="48">
+      <c r="AQ1" s="47">
         <v>20</v>
       </c>
-      <c r="AR1" s="48"/>
+      <c r="AR1" s="47"/>
       <c r="AS1" s="46">
         <v>-20</v>
       </c>
       <c r="AT1" s="46"/>
-      <c r="AU1" s="48">
+      <c r="AU1" s="47">
         <v>6</v>
       </c>
-      <c r="AV1" s="48"/>
+      <c r="AV1" s="47"/>
       <c r="AW1" s="46">
         <v>-6</v>
       </c>
       <c r="AX1" s="46"/>
-      <c r="AY1" s="48">
+      <c r="AY1" s="47">
         <v>3</v>
       </c>
-      <c r="AZ1" s="48"/>
+      <c r="AZ1" s="47"/>
       <c r="BA1" s="46">
         <v>-3</v>
       </c>
       <c r="BB1" s="46"/>
-      <c r="BC1" s="48">
+      <c r="BC1" s="47">
         <v>10</v>
       </c>
-      <c r="BD1" s="48"/>
+      <c r="BD1" s="47"/>
       <c r="BE1" s="46" t="s">
         <v>208</v>
       </c>
       <c r="BF1" s="46"/>
-      <c r="BG1" s="48">
+      <c r="BG1" s="47">
         <v>11</v>
       </c>
-      <c r="BH1" s="48"/>
+      <c r="BH1" s="47"/>
       <c r="BI1" s="46">
         <v>-11</v>
       </c>
@@ -9674,10 +10316,10 @@
       <c r="BJ19" s="28"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C22" s="18" t="s">
@@ -10733,6 +11375,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
@@ -10745,25 +11406,6 @@
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E61E76-6581-4EBB-8020-EE78DD9B1AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733178E-7A9E-4583-89D3-A0324E2C3CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="360">
   <si>
     <t>-6 -8</t>
   </si>
@@ -7612,7 +7612,7 @@
   <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8277,8 +8277,12 @@
       <c r="N21" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="O21" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AF21" s="1"/>
       <c r="AH21" s="6"/>
     </row>
@@ -8288,14 +8292,18 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>357</v>
+      </c>
       <c r="F22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
         <v>1</v>
       </c>
@@ -8317,12 +8325,8 @@
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="50"/>
-      <c r="E23" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>1</v>
-      </c>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="49" t="s">
         <v>357</v>
       </c>
@@ -8344,14 +8348,14 @@
       <c r="B24" s="14">
         <v>-4</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>357</v>
       </c>
+      <c r="D24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="49"/>
       <c r="H24" s="50"/>
       <c r="I24" s="49"/>
@@ -8614,8 +8618,12 @@
       <c r="B34" s="14">
         <v>-7</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="50"/>
+      <c r="C34" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>357</v>
+      </c>
       <c r="E34" s="49"/>
       <c r="F34" s="50"/>
       <c r="G34" s="49"/>

--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733178E-7A9E-4583-89D3-A0324E2C3CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF18126-FCBD-4888-8E19-83D1D13D306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1409,13 +1409,25 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,22 +1445,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1808,110 +1808,110 @@
     <row r="1" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="41">
+      <c r="C1" s="44">
         <v>17</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="40">
+      <c r="D1" s="44"/>
+      <c r="E1" s="43">
         <v>-17</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="39">
+      <c r="F1" s="43"/>
+      <c r="G1" s="45">
         <v>19</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="41">
+      <c r="H1" s="45"/>
+      <c r="I1" s="44">
         <v>-19</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44">
         <v>9</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40">
+      <c r="L1" s="44"/>
+      <c r="M1" s="43">
         <v>-9</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="39">
+      <c r="N1" s="43"/>
+      <c r="O1" s="45">
         <v>7</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="41">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="44">
         <v>-7</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="39">
+      <c r="R1" s="44"/>
+      <c r="S1" s="45">
         <v>10</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="41">
+      <c r="T1" s="45"/>
+      <c r="U1" s="44">
         <v>-10</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41">
+      <c r="V1" s="44"/>
+      <c r="W1" s="44">
         <v>11</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="40">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="43">
         <v>-11</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="41">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="44">
         <v>14</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="40">
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="43">
         <v>-14</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="39">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="45">
         <v>15</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="41">
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="44">
         <v>-15</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41">
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44">
         <v>4</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="40">
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="43">
         <v>-4</v>
       </c>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="41">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="44">
         <v>18</v>
       </c>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="40">
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="43">
         <v>-18</v>
       </c>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="41">
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="44">
         <v>2</v>
       </c>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="40">
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="43">
         <v>-2</v>
       </c>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="39">
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="45">
         <v>8</v>
       </c>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="41">
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="44">
         <v>-8</v>
       </c>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="39">
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="45">
         <v>13</v>
       </c>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="40">
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="43">
         <v>-13</v>
       </c>
-      <c r="BB1" s="40"/>
+      <c r="BB1" s="43"/>
       <c r="BD1" s="9" t="s">
         <v>108</v>
       </c>
@@ -7446,12 +7446,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7464,14 +7466,12 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7612,7 +7612,7 @@
   <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="T17" sqref="T17:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7626,62 +7626,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C1" s="39">
-        <v>1</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40">
+      <c r="C1" s="45">
+        <v>1</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="43">
         <v>-1</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="39">
+      <c r="F1" s="43"/>
+      <c r="G1" s="45">
         <v>2</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40">
+      <c r="H1" s="45"/>
+      <c r="I1" s="43">
         <v>-2</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39">
+      <c r="J1" s="43"/>
+      <c r="K1" s="45">
         <v>3</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="44">
+      <c r="L1" s="45"/>
+      <c r="M1" s="48">
         <v>-3</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="42">
+      <c r="N1" s="49"/>
+      <c r="O1" s="46">
         <v>4</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48">
         <v>-4</v>
       </c>
-      <c r="R1" s="45"/>
-      <c r="S1" s="42">
+      <c r="R1" s="49"/>
+      <c r="S1" s="46">
         <v>5</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="44">
+      <c r="T1" s="47"/>
+      <c r="U1" s="48">
         <v>-5</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="42">
+      <c r="V1" s="49"/>
+      <c r="W1" s="46">
         <v>6</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="44">
+      <c r="X1" s="47"/>
+      <c r="Y1" s="48">
         <v>-6</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="42">
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="46">
         <v>7</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="44">
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="48">
         <v>-7</v>
       </c>
-      <c r="AD1" s="45"/>
+      <c r="AD1" s="49"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
@@ -8063,149 +8063,149 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="49" t="s">
+      <c r="B13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="51" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="49" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="49" t="s">
+      <c r="H15" s="40"/>
+      <c r="I15" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="49" t="s">
+      <c r="L17" s="40"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="49" t="s">
-        <v>358</v>
-      </c>
-      <c r="P17" s="50" t="s">
-        <v>359</v>
-      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
@@ -8323,24 +8323,24 @@
       <c r="B23" s="14">
         <v>4</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="49" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="H23" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="50"/>
+      <c r="H23" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
       <c r="AF23" s="1"/>
       <c r="AH23" s="6"/>
     </row>
@@ -8348,24 +8348,24 @@
       <c r="B24" s="14">
         <v>-4</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="50"/>
+      <c r="D24" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="40"/>
       <c r="AF24" s="1"/>
       <c r="AH24" s="6"/>
     </row>
@@ -8373,28 +8373,28 @@
       <c r="B25" s="14">
         <v>2</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="49" t="s">
+      <c r="D25" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="J25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="50"/>
+      <c r="J25" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="40"/>
       <c r="AF25" s="1"/>
       <c r="AH25" s="6"/>
     </row>
@@ -8402,24 +8402,24 @@
       <c r="B26" s="14">
         <v>-2</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="50" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="50"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
       <c r="AF26" s="1"/>
       <c r="AH26" s="6"/>
     </row>
@@ -8427,28 +8427,28 @@
       <c r="B27" s="14">
         <v>5</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="D27" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="49" t="s">
+      <c r="D27" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="J27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
+      <c r="J27" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
       <c r="AF27" s="1"/>
       <c r="AH27" s="6"/>
     </row>
@@ -8456,28 +8456,28 @@
       <c r="B28" s="14">
         <v>-5</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="50" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="I28" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="50" t="s">
+      <c r="I28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
       <c r="AF28" s="1"/>
       <c r="AH28" s="6"/>
     </row>
@@ -8485,24 +8485,24 @@
       <c r="B29" s="14">
         <v>6</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="49" t="s">
+      <c r="C29" s="39"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="N29" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="O29" s="49"/>
-      <c r="P29" s="50"/>
+      <c r="N29" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
       <c r="AF29" s="1"/>
       <c r="AH29" s="6"/>
     </row>
@@ -8510,24 +8510,24 @@
       <c r="B30" s="14">
         <v>-6</v>
       </c>
-      <c r="C30" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="50"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
       <c r="AF30" s="1"/>
       <c r="AH30" s="6"/>
     </row>
@@ -8535,26 +8535,26 @@
       <c r="B31" s="14">
         <v>3</v>
       </c>
-      <c r="C31" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="P31" s="50" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="40" t="s">
         <v>357</v>
       </c>
       <c r="AF31" s="1"/>
@@ -8564,24 +8564,24 @@
       <c r="B32" s="14">
         <v>-3</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="50" t="s">
+      <c r="C32" s="42"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="50"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
       <c r="AF32" s="1"/>
       <c r="AH32" s="6"/>
     </row>
@@ -8589,26 +8589,26 @@
       <c r="B33" s="14">
         <v>7</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="N33" s="50" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="O33" s="49" t="s">
+      <c r="O33" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="P33" s="50" t="s">
+      <c r="P33" s="40" t="s">
         <v>1</v>
       </c>
       <c r="AF33" s="1"/>
@@ -8618,26 +8618,26 @@
       <c r="B34" s="14">
         <v>-7</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="P34" s="50" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="40" t="s">
         <v>357</v>
       </c>
       <c r="AF34" s="1"/>
@@ -8645,6 +8645,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
@@ -8654,11 +8659,6 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8694,126 +8694,126 @@
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="47">
-        <v>1</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46">
+      <c r="C1" s="52">
+        <v>1</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="50">
         <v>-1</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47">
+      <c r="F1" s="50"/>
+      <c r="G1" s="52">
         <v>5</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="46">
+      <c r="H1" s="52"/>
+      <c r="I1" s="50">
         <v>-5</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47">
+      <c r="J1" s="50"/>
+      <c r="K1" s="52">
         <v>4</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="46">
+      <c r="L1" s="52"/>
+      <c r="M1" s="50">
         <v>-4</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47">
+      <c r="N1" s="50"/>
+      <c r="O1" s="52">
         <v>12</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="46">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="50">
         <v>-12</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47">
+      <c r="R1" s="50"/>
+      <c r="S1" s="52">
         <v>15</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="46">
+      <c r="T1" s="52"/>
+      <c r="U1" s="50">
         <v>-15</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="47">
+      <c r="V1" s="50"/>
+      <c r="W1" s="52">
         <v>18</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="46">
+      <c r="X1" s="52"/>
+      <c r="Y1" s="50">
         <v>-18</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="47">
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="52">
         <v>16</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46">
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="50">
         <v>-16</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="47">
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="52">
         <v>14</v>
       </c>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="46">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="50">
         <v>-14</v>
       </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="47">
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="52">
         <v>8</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="46">
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="50">
         <v>-8</v>
       </c>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="47">
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="52">
         <v>9</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="46">
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="50">
         <v>-9</v>
       </c>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="47">
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="52">
         <v>20</v>
       </c>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="46">
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="50">
         <v>-20</v>
       </c>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="47">
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="52">
         <v>6</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="46">
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="50">
         <v>-6</v>
       </c>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="47">
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="52">
         <v>3</v>
       </c>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="46">
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="50">
         <v>-3</v>
       </c>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="47">
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="52">
         <v>10</v>
       </c>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="46" t="s">
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="47">
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="52">
         <v>11</v>
       </c>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="46">
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="50">
         <v>-11</v>
       </c>
-      <c r="BJ1" s="46"/>
+      <c r="BJ1" s="50"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -10324,10 +10324,10 @@
       <c r="BJ19" s="28"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="48"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C22" s="18" t="s">
@@ -11383,13 +11383,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -11402,18 +11407,13 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/SATCalculator/Resources/sat tables.xlsx
+++ b/SATCalculator/Resources/sat tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF18126-FCBD-4888-8E19-83D1D13D306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06C15E4-3F44-4E4B-9BDD-7A9989DA8BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,27 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="374">
   <si>
     <t>-6 -8</t>
   </si>
@@ -1099,6 +1113,48 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>-x1</t>
+  </si>
+  <si>
+    <t>-x2</t>
+  </si>
+  <si>
+    <t>-x3</t>
+  </si>
+  <si>
+    <t>-x4</t>
+  </si>
+  <si>
+    <t>-x5</t>
+  </si>
+  <si>
+    <t>-x6</t>
+  </si>
+  <si>
+    <t>-x7</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1421,13 +1477,13 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,11 +1501,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1808,110 +1867,110 @@
     <row r="1" spans="1:56" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="44">
+      <c r="C1" s="45">
         <v>17</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43">
+      <c r="D1" s="45"/>
+      <c r="E1" s="44">
         <v>-17</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="45">
+      <c r="F1" s="44"/>
+      <c r="G1" s="43">
         <v>19</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="44">
+      <c r="H1" s="43"/>
+      <c r="I1" s="45">
         <v>-19</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45">
         <v>9</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="43">
+      <c r="L1" s="45"/>
+      <c r="M1" s="44">
         <v>-9</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="45">
+      <c r="N1" s="44"/>
+      <c r="O1" s="43">
         <v>7</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="44">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="45">
         <v>-7</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="45">
+      <c r="R1" s="45"/>
+      <c r="S1" s="43">
         <v>10</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="44">
+      <c r="T1" s="43"/>
+      <c r="U1" s="45">
         <v>-10</v>
       </c>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44">
+      <c r="V1" s="45"/>
+      <c r="W1" s="45">
         <v>11</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="43">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="44">
         <v>-11</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="44">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="45">
         <v>14</v>
       </c>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="43">
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="44">
         <v>-14</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="45">
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="43">
         <v>15</v>
       </c>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="44">
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="45">
         <v>-15</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44">
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45">
         <v>4</v>
       </c>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="43">
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="44">
         <v>-4</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="44">
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="45">
         <v>18</v>
       </c>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="43">
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="44">
         <v>-18</v>
       </c>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="44">
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="45">
         <v>2</v>
       </c>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="43">
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="44">
         <v>-2</v>
       </c>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="45">
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="43">
         <v>8</v>
       </c>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="44">
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="45">
         <v>-8</v>
       </c>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="45">
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="43">
         <v>13</v>
       </c>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="43">
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="44">
         <v>-13</v>
       </c>
-      <c r="BB1" s="43"/>
+      <c r="BB1" s="44"/>
       <c r="BD1" s="9" t="s">
         <v>108</v>
       </c>
@@ -7446,14 +7505,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -7466,12 +7523,14 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7611,8 +7670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17:U17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7626,26 +7685,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C1" s="45">
-        <v>1</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="43">
+      <c r="C1" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44">
         <v>-1</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="45">
+      <c r="F1" s="44"/>
+      <c r="G1" s="43">
         <v>2</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="43">
+      <c r="H1" s="43"/>
+      <c r="I1" s="44">
         <v>-2</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="45">
+      <c r="J1" s="44"/>
+      <c r="K1" s="43">
         <v>3</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="48">
         <v>-3</v>
       </c>
@@ -8645,11 +8704,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
@@ -8659,6 +8713,11 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8673,7 +8732,7 @@
       <pane xSplit="5" ySplit="21" topLeftCell="F99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22:E113"/>
+      <selection pane="bottomRight" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8694,122 +8753,122 @@
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="52">
-        <v>1</v>
-      </c>
-      <c r="D1" s="52"/>
+      <c r="C1" s="51">
+        <v>1</v>
+      </c>
+      <c r="D1" s="51"/>
       <c r="E1" s="50">
         <v>-1</v>
       </c>
       <c r="F1" s="50"/>
-      <c r="G1" s="52">
+      <c r="G1" s="51">
         <v>5</v>
       </c>
-      <c r="H1" s="52"/>
+      <c r="H1" s="51"/>
       <c r="I1" s="50">
         <v>-5</v>
       </c>
       <c r="J1" s="50"/>
-      <c r="K1" s="52">
+      <c r="K1" s="51">
         <v>4</v>
       </c>
-      <c r="L1" s="52"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="50">
         <v>-4</v>
       </c>
       <c r="N1" s="50"/>
-      <c r="O1" s="52">
+      <c r="O1" s="51">
         <v>12</v>
       </c>
-      <c r="P1" s="52"/>
+      <c r="P1" s="51"/>
       <c r="Q1" s="50">
         <v>-12</v>
       </c>
       <c r="R1" s="50"/>
-      <c r="S1" s="52">
+      <c r="S1" s="51">
         <v>15</v>
       </c>
-      <c r="T1" s="52"/>
+      <c r="T1" s="51"/>
       <c r="U1" s="50">
         <v>-15</v>
       </c>
       <c r="V1" s="50"/>
-      <c r="W1" s="52">
+      <c r="W1" s="51">
         <v>18</v>
       </c>
-      <c r="X1" s="52"/>
+      <c r="X1" s="51"/>
       <c r="Y1" s="50">
         <v>-18</v>
       </c>
       <c r="Z1" s="50"/>
-      <c r="AA1" s="52">
+      <c r="AA1" s="51">
         <v>16</v>
       </c>
-      <c r="AB1" s="52"/>
+      <c r="AB1" s="51"/>
       <c r="AC1" s="50">
         <v>-16</v>
       </c>
       <c r="AD1" s="50"/>
-      <c r="AE1" s="52">
+      <c r="AE1" s="51">
         <v>14</v>
       </c>
-      <c r="AF1" s="52"/>
+      <c r="AF1" s="51"/>
       <c r="AG1" s="50">
         <v>-14</v>
       </c>
       <c r="AH1" s="50"/>
-      <c r="AI1" s="52">
+      <c r="AI1" s="51">
         <v>8</v>
       </c>
-      <c r="AJ1" s="52"/>
+      <c r="AJ1" s="51"/>
       <c r="AK1" s="50">
         <v>-8</v>
       </c>
       <c r="AL1" s="50"/>
-      <c r="AM1" s="52">
+      <c r="AM1" s="51">
         <v>9</v>
       </c>
-      <c r="AN1" s="52"/>
+      <c r="AN1" s="51"/>
       <c r="AO1" s="50">
         <v>-9</v>
       </c>
       <c r="AP1" s="50"/>
-      <c r="AQ1" s="52">
+      <c r="AQ1" s="51">
         <v>20</v>
       </c>
-      <c r="AR1" s="52"/>
+      <c r="AR1" s="51"/>
       <c r="AS1" s="50">
         <v>-20</v>
       </c>
       <c r="AT1" s="50"/>
-      <c r="AU1" s="52">
+      <c r="AU1" s="51">
         <v>6</v>
       </c>
-      <c r="AV1" s="52"/>
+      <c r="AV1" s="51"/>
       <c r="AW1" s="50">
         <v>-6</v>
       </c>
       <c r="AX1" s="50"/>
-      <c r="AY1" s="52">
+      <c r="AY1" s="51">
         <v>3</v>
       </c>
-      <c r="AZ1" s="52"/>
+      <c r="AZ1" s="51"/>
       <c r="BA1" s="50">
         <v>-3</v>
       </c>
       <c r="BB1" s="50"/>
-      <c r="BC1" s="52">
+      <c r="BC1" s="51">
         <v>10</v>
       </c>
-      <c r="BD1" s="52"/>
+      <c r="BD1" s="51"/>
       <c r="BE1" s="50" t="s">
         <v>208</v>
       </c>
       <c r="BF1" s="50"/>
-      <c r="BG1" s="52">
+      <c r="BG1" s="51">
         <v>11</v>
       </c>
-      <c r="BH1" s="52"/>
+      <c r="BH1" s="51"/>
       <c r="BI1" s="50">
         <v>-11</v>
       </c>
@@ -10324,10 +10383,10 @@
       <c r="BJ19" s="28"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C22" s="18" t="s">
@@ -11383,6 +11442,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
@@ -11395,25 +11473,6 @@
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -16695,4 +16754,1791 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9E820E-0DBF-4778-8537-90130806F27F}">
+  <dimension ref="B1:AG31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20:AL28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="16" width="4.28515625" customWidth="1"/>
+    <col min="20" max="33" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="S1" s="53"/>
+      <c r="T1" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG2" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="S3" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="40"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+      <c r="S4" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="40"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="S5" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="40"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V6" s="39"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="S7" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="40"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="S8" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="W8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="40"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="S9" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG9" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="S10" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="40"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="S11" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG11" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
+      <c r="S12" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="S13" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="40"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF14" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG14" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="53"/>
+      <c r="C17" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="S17" s="53"/>
+      <c r="T17" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z17" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD17" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE17" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF17" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG17" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+      <c r="S18" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="T18" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" s="39"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG18" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA19" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="40"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="S20" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="W20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="40"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U21" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="40"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V22" s="39"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y22" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
+      <c r="S23" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V23" s="39"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="40"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="39"/>
+      <c r="P24" s="40"/>
+      <c r="S24" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="T24" s="39"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="W24" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA24" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="40"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="P25" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U25" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" s="39"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="40"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
+      <c r="S26" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="T26" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="U26" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" s="39"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC26" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="40"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="S27" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="T27" s="39"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="40"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="S28" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="T28" s="39"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y28" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE28" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="40"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="S29" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="T29" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V29" s="39"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="40"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="T30" s="39"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG30" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="T31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="V31" s="39"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>